--- a/outputs/InnovateUK_Funding_Opportunities_Latest.xlsx
+++ b/outputs/InnovateUK_Funding_Opportunities_Latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,20 +476,30 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
@@ -531,13 +541,19 @@
           <t>01/01/2026</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>25/11/2026                              16:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" s="1" t="n">
+        <v>46351.66666666666</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -577,13 +593,19 @@
           <t>01/01/2026</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>26/02/2026                              16:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" s="1" t="n">
+        <v>46079.66666666666</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -619,17 +641,21 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -667,7 +693,9 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -705,7 +733,9 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -743,7 +773,9 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -783,13 +815,19 @@
           <t>20/02/2026</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>15/04/2026                              16:00</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" s="1" t="n">
+        <v>46127.66666666666</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -829,13 +867,19 @@
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>26/11/2027                              16:00</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" s="1" t="n">
+        <v>46717.66666666666</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -873,7 +917,9 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -888,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,20 +985,30 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
@@ -961,26 +1017,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Innovate UK Business Connect</t>
+          <t>Innovate Funding Service</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Advanced manufacturing supply chain innovation: feasibility studies</t>
+          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/advanced-manufacturing-supply-chain-innovation-feasibility-studies/</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2378/overview/ae120ce2-7b72-4cf2-8dde-f78b02d5996d</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-01-28 08:23</t>
+          <t>2026-01-28 10:24</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>46050.34930555556</v>
+        <v>46050.43333333333</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -989,48 +1045,48 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>02/02/2026</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>11/03/2026                              11:00</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>Wednesday 18 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L2" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>£225,000</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>46050</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Innovate UK Business Connect</t>
+          <t>Innovate Funding Service</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
+          <t>TechLocal AI Professional Degree and Traineeship Accelerator</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/techlocal-connecting-local-talent-to-local-tech-jobs/</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2375/overview/6431359e-eb5c-4f76-b49d-299948107fbd</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-01-28 08:23</t>
+          <t>2026-01-28 10:24</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>46050.34930555556</v>
+        <v>46050.43333333333</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1039,22 +1095,134 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Wednesday 18 March 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>£300,000</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Advanced manufacturing supply chain innovation: feasibility studies</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/advanced-manufacturing-supply-chain-innovation-feasibility-studies/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-28 08:23</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>46050.34930555556</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>02/02/2026</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>46055</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>11/03/2026                              11:00</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>£5.0 million</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/techlocal-connecting-local-talent-to-local-tech-jobs/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-28 08:23</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>46050.34930555556</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J5" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>18/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L5" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£7.6 million</t>
         </is>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>46050</v>
       </c>
     </row>
@@ -1104,13 +1272,13 @@
         <v>46050</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1586,7 +1754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L214"/>
+  <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,20 +1805,30 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
@@ -1692,17 +1870,23 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>10/02/2026                              12:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="1" t="n">
+        <v>46063.5</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1742,17 +1926,23 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>22/01/2026                              14:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="1" t="n">
+        <v>46044.58333333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£8</t>
         </is>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="N3" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1792,17 +1982,23 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>06/02/2026                              23:59</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="1" t="n">
+        <v>46059.99930555555</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1842,17 +2038,23 @@
           <t>15/12/2025</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="1" t="n">
+        <v>46006</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>29/01/2026                              17:00</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="1" t="n">
+        <v>46051.70833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£60,000</t>
         </is>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1892,17 +2094,23 @@
           <t>01/12/2025</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>04/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="N6" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1942,17 +2150,23 @@
           <t>20/11/2025</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="1" t="n">
+        <v>45981</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>02/02/2026                              14:00</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" s="1" t="n">
+        <v>46055.58333333334</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -1992,17 +2206,23 @@
           <t>02/12/2025</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="1" t="n">
+        <v>45993</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>02/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" s="1" t="n">
+        <v>46024.99930555555</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="N8" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2042,17 +2262,23 @@
           <t>20/11/2025</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="1" t="n">
+        <v>45981</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>17/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" s="1" t="n">
+        <v>46008.99930555555</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="N9" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2092,17 +2318,23 @@
           <t>01/12/2025</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>15/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" s="1" t="n">
+        <v>46037.99930555555</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>£200,000</t>
         </is>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2142,17 +2374,23 @@
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="1" t="n">
+        <v>46001</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>03/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" s="1" t="n">
+        <v>46056.45833333334</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>£100.0 million</t>
         </is>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2192,17 +2430,23 @@
           <t>04/12/2025</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="1" t="n">
+        <v>45995</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>05/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" s="1" t="n">
+        <v>46027.99930555555</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>£25,000</t>
         </is>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="N12" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2242,17 +2486,23 @@
           <t>26/11/2025</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="1" t="n">
+        <v>45987</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>04/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>£315,000</t>
         </is>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="N13" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2292,13 +2542,19 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="1" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>19/01/2026                              16:00</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" s="1" t="n">
+        <v>46041.66666666666</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2338,17 +2594,23 @@
           <t>14/11/2025</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="1" t="n">
+        <v>45975</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>11/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" s="1" t="n">
+        <v>46033.99930555555</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>£2,000</t>
         </is>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2388,17 +2650,23 @@
           <t>18/11/2025</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="1" t="n">
+        <v>45979</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>02/02/2026                              12:00</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" s="1" t="n">
+        <v>46055.5</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>£1.1 million</t>
         </is>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="N16" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2438,17 +2706,23 @@
           <t>12/11/2025</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="1" t="n">
+        <v>45973</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>02/01/2026                              17:00</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" s="1" t="n">
+        <v>46024.70833333334</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>£3</t>
         </is>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="N17" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2488,17 +2762,23 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="1" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="N18" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2538,13 +2818,19 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="1" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>19/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" s="1" t="n">
+        <v>46010.99930555555</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2584,17 +2870,23 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="1" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" s="1" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="N20" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2634,17 +2926,23 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="1" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" s="1" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="N21" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2684,17 +2982,23 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>25/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>£10.0 million</t>
         </is>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="N22" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2734,13 +3038,19 @@
           <t>31/10/2025</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="1" t="n">
+        <v>45961</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>31/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" s="1" t="n">
+        <v>46022.99930555555</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2780,17 +3090,23 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="N24" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2830,13 +3146,19 @@
           <t>31/10/2025</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="1" t="n">
+        <v>45961</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>31/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
       <c r="L25" s="1" t="n">
+        <v>46022.99930555555</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2876,17 +3198,23 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" s="1" t="n">
+        <v>45964</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>15/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" s="1" t="n">
+        <v>46006.99930555555</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L26" s="1" t="n">
+      <c r="N26" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2926,17 +3254,23 @@
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" s="1" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>£3.5 million</t>
         </is>
       </c>
-      <c r="L27" s="1" t="n">
+      <c r="N27" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -2976,17 +3310,23 @@
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" s="1" t="n">
+        <v>45953</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>07/01/2026                              11:00</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" s="1" t="n">
+        <v>46029.45833333334</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L28" s="1" t="n">
+      <c r="N28" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3026,17 +3366,23 @@
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" s="1" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>£15.5 million</t>
         </is>
       </c>
-      <c r="L29" s="1" t="n">
+      <c r="N29" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3076,17 +3422,23 @@
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" s="1" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>£15.5 million</t>
         </is>
       </c>
-      <c r="L30" s="1" t="n">
+      <c r="N30" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3126,17 +3478,23 @@
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" s="1" t="n">
+        <v>45953</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L31" s="1" t="n">
+      <c r="N31" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3176,17 +3534,23 @@
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" s="1" t="n">
+        <v>45953</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="N32" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3226,17 +3590,23 @@
           <t>20/10/2025</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" s="1" t="n">
+        <v>45950</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>£15.0 million</t>
         </is>
       </c>
-      <c r="L33" s="1" t="n">
+      <c r="N33" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3276,17 +3646,23 @@
           <t>20/10/2025</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" s="1" t="n">
+        <v>45950</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L34" s="1" t="n">
+      <c r="N34" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3326,17 +3702,23 @@
           <t>13/10/2025</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" s="1" t="n">
+        <v>45943</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>11/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" s="1" t="n">
+        <v>46002.99930555555</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L35" s="1" t="n">
+      <c r="N35" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3376,17 +3758,23 @@
           <t>07/10/2025</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" s="1" t="n">
+        <v>45937</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>15/01/2026                              17:00</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" s="1" t="n">
+        <v>46037.70833333334</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>£55.0 million</t>
         </is>
       </c>
-      <c r="L36" s="1" t="n">
+      <c r="N36" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3426,17 +3814,23 @@
           <t>13/10/2025</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" s="1" t="n">
+        <v>45943</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>21/01/2026                              11:00</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" s="1" t="n">
+        <v>46043.45833333334</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L37" s="1" t="n">
+      <c r="N37" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3473,12 +3867,14 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L38" s="1" t="n">
+      <c r="N38" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3515,12 +3911,14 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
         <is>
           <t>£150.0 million</t>
         </is>
       </c>
-      <c r="L39" s="1" t="n">
+      <c r="N39" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3558,7 +3956,9 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" s="1" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3596,7 +3996,9 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" s="1" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3633,12 +4035,14 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
         <is>
           <t>£750</t>
         </is>
       </c>
-      <c r="L42" s="1" t="n">
+      <c r="N42" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3675,12 +4079,14 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
         <is>
           <t>£315,000</t>
         </is>
       </c>
-      <c r="L43" s="1" t="n">
+      <c r="N43" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3718,7 +4124,9 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" s="1" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3758,13 +4166,19 @@
           <t>06/05/2025</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" s="1" t="n">
+        <v>45783</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>20/01/2026                              16:00</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" s="1" t="n">
+        <v>46042.66666666666</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3804,13 +4218,19 @@
           <t>06/05/2025</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" s="1" t="n">
+        <v>45783</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>20/01/2026                              16:00</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" s="1" t="n">
+        <v>46042.66666666666</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3850,13 +4270,19 @@
           <t>03/05/2025</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" s="1" t="n">
+        <v>45780</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>17/02/2026                              16:00</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
       <c r="L47" s="1" t="n">
+        <v>46070.66666666666</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3893,12 +4319,14 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L48" s="1" t="n">
+      <c r="N48" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3936,7 +4364,9 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" s="1" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -3974,7 +4404,9 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" s="1" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4012,7 +4444,9 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" s="1" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4049,12 +4483,14 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
         <is>
           <t>£520.0 million</t>
         </is>
       </c>
-      <c r="L52" s="1" t="n">
+      <c r="N52" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4091,12 +4527,14 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
         <is>
           <t>£150.0 million</t>
         </is>
       </c>
-      <c r="L53" s="1" t="n">
+      <c r="N53" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4133,12 +4571,14 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
         <is>
           <t>£200.0 million</t>
         </is>
       </c>
-      <c r="L54" s="1" t="n">
+      <c r="N54" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4175,12 +4615,14 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
         <is>
           <t>£400.0 million</t>
         </is>
       </c>
-      <c r="L55" s="1" t="n">
+      <c r="N55" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4217,12 +4659,14 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
         <is>
           <t>£660.0 million</t>
         </is>
       </c>
-      <c r="L56" s="1" t="n">
+      <c r="N56" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4259,12 +4703,14 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L57" s="1" t="n">
+      <c r="N57" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4301,12 +4747,14 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L58" s="1" t="n">
+      <c r="N58" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4344,7 +4792,9 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" s="1" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4381,12 +4831,14 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
         <is>
           <t>£130.0 million</t>
         </is>
       </c>
-      <c r="L60" s="1" t="n">
+      <c r="N60" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4423,12 +4875,14 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
         <is>
           <t>£70.0 million</t>
         </is>
       </c>
-      <c r="L61" s="1" t="n">
+      <c r="N61" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4465,12 +4919,14 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L62" s="1" t="n">
+      <c r="N62" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4507,12 +4963,14 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
         <is>
           <t>£500</t>
         </is>
       </c>
-      <c r="L63" s="1" t="n">
+      <c r="N63" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4549,12 +5007,14 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L64" s="1" t="n">
+      <c r="N64" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4592,7 +5052,9 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" s="1" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4630,7 +5092,9 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" s="1" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4668,7 +5132,9 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" s="1" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4706,7 +5172,9 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" s="1" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4744,7 +5212,9 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" s="1" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4782,7 +5252,9 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" s="1" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4820,7 +5292,9 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" s="1" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4858,7 +5332,9 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" s="1" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4896,7 +5372,9 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" s="1" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4934,7 +5412,9 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" s="1" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -4972,7 +5452,9 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" s="1" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -5010,7 +5492,9 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" s="1" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -5047,12 +5531,14 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
         <is>
           <t>£500</t>
         </is>
       </c>
-      <c r="L77" s="1" t="n">
+      <c r="N77" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -5092,17 +5578,23 @@
           <t>11/12/2025</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J78" s="1" t="n">
+        <v>46002</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>04/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>£3.5 million</t>
         </is>
       </c>
-      <c r="L78" s="1" t="n">
+      <c r="N78" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -5142,17 +5634,23 @@
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J79" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>18/01/2026                              18:00</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" s="1" t="n">
+        <v>46040.75</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>£1,000</t>
         </is>
       </c>
-      <c r="L79" s="1" t="n">
+      <c r="N79" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -5192,17 +5690,23 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J80" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>19/01/2026                              00:00</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>£50.0 million</t>
         </is>
       </c>
-      <c r="L80" s="1" t="n">
+      <c r="N80" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -5242,13 +5746,19 @@
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J81" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>19/01/2026                              00:00</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
       <c r="L81" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -5288,17 +5798,23 @@
           <t>15/01/2026</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J82" s="1" t="n">
+        <v>46037</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>25/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" s="1" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L82" s="1" t="n">
+      <c r="N82" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -5338,17 +5854,23 @@
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J83" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>09/02/2026                              23:59</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" s="1" t="n">
+        <v>46062.99930555555</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L83" s="1" t="n">
+      <c r="N83" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -5388,13 +5910,19 @@
           <t>16/01/2026</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J84" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>19/03/2026                              14:00</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
       <c r="L84" s="1" t="n">
+        <v>46100.58333333334</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" s="1" t="n">
         <v>46015</v>
       </c>
     </row>
@@ -5434,13 +5962,19 @@
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J85" s="1" t="n">
+        <v>46043</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>21/04/2026                              16:00</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
       <c r="L85" s="1" t="n">
+        <v>46133.66666666666</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -5480,17 +6014,23 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J86" s="1" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>25/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>£7.0 million</t>
         </is>
       </c>
-      <c r="L86" s="1" t="n">
+      <c r="N86" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5530,13 +6070,19 @@
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J87" s="1" t="n">
+        <v>46028</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>15/02/2026                              23:00</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" s="1" t="n">
+        <v>46068.95833333334</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5576,17 +6122,23 @@
           <t>04/12/2025</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J88" s="1" t="n">
+        <v>45995</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>19/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" s="1" t="n">
+        <v>46041.99930555555</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>£25,000</t>
         </is>
       </c>
-      <c r="L88" s="1" t="n">
+      <c r="N88" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5626,17 +6178,23 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J89" s="1" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>18/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>£33.0 million</t>
         </is>
       </c>
-      <c r="L89" s="1" t="n">
+      <c r="N89" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5676,17 +6234,23 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J90" s="1" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>11/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>£33.0 million</t>
         </is>
       </c>
-      <c r="L90" s="1" t="n">
+      <c r="N90" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5726,13 +6290,19 @@
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J91" s="1" t="n">
+        <v>46029</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>12/02/2026                              17:00</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
       <c r="L91" s="1" t="n">
+        <v>46065.70833333334</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5770,7 +6340,9 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" s="1" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5808,7 +6380,9 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" s="1" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5848,13 +6422,19 @@
           <t>08/01/2026</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J94" s="1" t="n">
+        <v>46030</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>17/02/2026                              17:00</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
       <c r="L94" s="1" t="n">
+        <v>46070.70833333334</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5892,7 +6472,9 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" s="1" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5930,7 +6512,9 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" s="1" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -5970,17 +6554,23 @@
           <t>08/01/2026</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J97" s="1" t="n">
+        <v>46030</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>04/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" s="1" t="n">
+        <v>46085.45833333334</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L97" s="1" t="n">
+      <c r="N97" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -6020,13 +6610,19 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J98" s="1" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>02/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
       <c r="L98" s="1" t="n">
+        <v>46632.66666666666</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -6066,13 +6662,19 @@
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J99" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>04/03/2026                              12:00</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
       <c r="L99" s="1" t="n">
+        <v>46085.5</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -6112,13 +6714,19 @@
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J100" s="1" t="n">
+        <v>46034</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>27/02/2026                              17:00</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
       <c r="L100" s="1" t="n">
+        <v>46080.70833333334</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -6158,13 +6766,19 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="J101" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>22/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
       <c r="L101" s="1" t="n">
+        <v>46652.66666666666</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6204,13 +6818,19 @@
           <t>06/05/2026</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J102" s="1" t="n">
+        <v>46148</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>04/11/2027                              00:00</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
       <c r="L102" s="1" t="n">
+        <v>46695</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6250,13 +6870,19 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J103" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>01/12/2027                              16:00</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
       <c r="L103" s="1" t="n">
+        <v>46722.66666666666</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6296,13 +6922,19 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="J104" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>07/10/2027                              16:00</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
       <c r="L104" s="1" t="n">
+        <v>46667.66666666666</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6340,7 +6972,9 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" s="1" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6380,13 +7014,19 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J106" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>21/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
       <c r="L106" s="1" t="n">
+        <v>46651.66666666666</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6426,13 +7066,19 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="J107" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>21/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
       <c r="L107" s="1" t="n">
+        <v>46651.66666666666</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6472,13 +7118,19 @@
           <t>10/02/2026</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="J108" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>21/09/2027                              00:00</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
       <c r="L108" s="1" t="n">
+        <v>46651</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6518,17 +7170,23 @@
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="J109" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>11/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="L109" s="1" t="n">
+        <v>46064.45833333334</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>£800,000</t>
         </is>
       </c>
-      <c r="L109" s="1" t="n">
+      <c r="N109" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6568,13 +7226,19 @@
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="J110" s="1" t="n">
+        <v>46041</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>09/02/2026                              23:59</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
       <c r="L110" s="1" t="n">
+        <v>46062.99930555555</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6612,7 +7276,9 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" s="1" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6652,17 +7318,23 @@
           <t>26/01/2026</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="J112" s="1" t="n">
+        <v>46048</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>25/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="L112" s="1" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L112" s="1" t="n">
+      <c r="N112" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -6700,7 +7372,9 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" s="1" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6740,13 +7414,19 @@
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J114" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>26/11/2027                              16:00</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
       <c r="L114" s="1" t="n">
+        <v>46717.66666666666</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6784,7 +7464,9 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" s="1" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6822,7 +7504,9 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" s="1" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6862,13 +7546,19 @@
           <t>20/02/2026</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="J117" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>15/04/2026                              16:00</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
       <c r="L117" s="1" t="n">
+        <v>46127.66666666666</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6906,7 +7596,9 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" s="1" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6946,13 +7638,19 @@
           <t>01/01/2026</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="J119" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>25/11/2026                              16:00</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
       <c r="L119" s="1" t="n">
+        <v>46351.66666666666</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6992,13 +7690,19 @@
           <t>01/01/2026</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="J120" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>26/02/2026                              16:00</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
       <c r="L120" s="1" t="n">
+        <v>46079.66666666666</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -7038,17 +7742,23 @@
           <t>02/02/2026</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="J121" s="1" t="n">
+        <v>46055</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>11/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="L121" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L121" s="1" t="n">
+      <c r="N121" s="1" t="n">
         <v>46050</v>
       </c>
     </row>
@@ -7088,17 +7798,23 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="J122" s="1" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>18/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="L122" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>£7.6 million</t>
         </is>
       </c>
-      <c r="L122" s="1" t="n">
+      <c r="N122" s="1" t="n">
         <v>46050</v>
       </c>
     </row>
@@ -7134,17 +7850,21 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>Wednesday 5 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="L123" s="1" t="n">
+        <v>45966.45833333334</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L123" s="1" t="n">
+      <c r="N123" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7180,17 +7900,21 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
         <is>
           <t>Thursday 24 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="L124" s="1" t="n">
+        <v>45862.45833333334</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L124" s="1" t="n">
+      <c r="N124" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7226,17 +7950,21 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="L125" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L125" s="1" t="n">
+      <c r="N125" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7272,17 +8000,21 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="L126" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>£50,000</t>
         </is>
       </c>
-      <c r="L126" s="1" t="n">
+      <c r="N126" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7318,17 +8050,21 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
         <is>
           <t>Thursday 4 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="L127" s="1" t="n">
+        <v>45904.45833333334</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L127" s="1" t="n">
+      <c r="N127" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7364,13 +8100,17 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr"/>
       <c r="L128" s="1" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7406,17 +8146,21 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="L129" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L129" s="1" t="n">
+      <c r="N129" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7452,17 +8196,21 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="L130" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L130" s="1" t="n">
+      <c r="N130" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7498,17 +8246,21 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="L131" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L131" s="1" t="n">
+      <c r="N131" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7544,17 +8296,21 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="L132" s="1" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L132" s="1" t="n">
+      <c r="N132" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7590,17 +8346,21 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="L133" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L133" s="1" t="n">
+      <c r="N133" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7636,17 +8396,21 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="L134" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L134" s="1" t="n">
+      <c r="N134" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7682,17 +8446,21 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="L135" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L135" s="1" t="n">
+      <c r="N135" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7728,17 +8496,21 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="L136" s="1" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L136" s="1" t="n">
+      <c r="N136" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7774,17 +8546,21 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="L137" s="1" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L137" s="1" t="n">
+      <c r="N137" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7820,17 +8596,21 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="L138" s="1" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L138" s="1" t="n">
+      <c r="N138" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7866,17 +8646,21 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="L139" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L139" s="1" t="n">
+      <c r="N139" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7912,17 +8696,21 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="L140" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L140" s="1" t="n">
+      <c r="N140" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -7958,17 +8746,21 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="L141" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>£2.5 million</t>
         </is>
       </c>
-      <c r="L141" s="1" t="n">
+      <c r="N141" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8004,17 +8796,21 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="L142" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>£2.5 million</t>
         </is>
       </c>
-      <c r="L142" s="1" t="n">
+      <c r="N142" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8050,17 +8846,21 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="L143" s="1" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L143" s="1" t="n">
+      <c r="N143" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8096,17 +8896,21 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="L144" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L144" s="1" t="n">
+      <c r="N144" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8142,13 +8946,15 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
         <is>
           <t>Thursday 27 November 2025 4:00pm</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" s="1" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8184,13 +8990,15 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
         <is>
           <t>Thursday 27 November 2025 4:00pm</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" s="1" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8226,17 +9034,21 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
         <is>
           <t>Wednesday 17 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="L147" s="1" t="n">
+        <v>45917.45833333334</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L147" s="1" t="n">
+      <c r="N147" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -8272,17 +9084,21 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
         <is>
           <t>Wednesday 20 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="L148" s="1" t="n">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L148" s="1" t="n">
+      <c r="N148" s="1" t="n">
         <v>45833</v>
       </c>
     </row>
@@ -8318,17 +9134,21 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
         <is>
           <t>Wednesday 20 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="L149" s="1" t="n">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L149" s="1" t="n">
+      <c r="N149" s="1" t="n">
         <v>45833</v>
       </c>
     </row>
@@ -8364,17 +9184,21 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="L150" s="1" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L150" s="1" t="n">
+      <c r="N150" s="1" t="n">
         <v>45840</v>
       </c>
     </row>
@@ -8410,17 +9234,21 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
         <is>
           <t>Wednesday 6 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="L151" s="1" t="n">
+        <v>45875.45833333334</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>£50,000</t>
         </is>
       </c>
-      <c r="L151" s="1" t="n">
+      <c r="N151" s="1" t="n">
         <v>45840</v>
       </c>
     </row>
@@ -8456,13 +9284,17 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
         <is>
           <t>Wednesday 23 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr"/>
       <c r="L152" s="1" t="n">
+        <v>45861.45833333334</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" s="1" t="n">
         <v>45840</v>
       </c>
     </row>
@@ -8498,17 +9330,21 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="L153" s="1" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L153" s="1" t="n">
+      <c r="N153" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8544,17 +9380,21 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="L154" s="1" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L154" s="1" t="n">
+      <c r="N154" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8590,17 +9430,21 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="L155" s="1" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L155" s="1" t="n">
+      <c r="N155" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8636,17 +9480,21 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr">
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
         <is>
           <t>Thursday 17 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="L156" s="1" t="n">
+        <v>45855.45833333334</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>£200,000</t>
         </is>
       </c>
-      <c r="L156" s="1" t="n">
+      <c r="N156" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8682,17 +9530,21 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
         <is>
           <t>Wednesday 3 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="L157" s="1" t="n">
+        <v>45903.45833333334</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>£750,000</t>
         </is>
       </c>
-      <c r="L157" s="1" t="n">
+      <c r="N157" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8728,17 +9580,21 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
         <is>
           <t>Wednesday 1 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="L158" s="1" t="n">
+        <v>45931.45833333334</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L158" s="1" t="n">
+      <c r="N158" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8774,17 +9630,21 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
         <is>
           <t>Wednesday 1 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
+      <c r="L159" s="1" t="n">
+        <v>45931.45833333334</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L159" s="1" t="n">
+      <c r="N159" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -8820,17 +9680,21 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr">
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
         <is>
           <t>Wednesday 3 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="L160" s="1" t="n">
+        <v>45903.45833333334</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L160" s="1" t="n">
+      <c r="N160" s="1" t="n">
         <v>45861</v>
       </c>
     </row>
@@ -8866,17 +9730,21 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr">
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
         <is>
           <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="L161" s="1" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>£120,000</t>
         </is>
       </c>
-      <c r="L161" s="1" t="n">
+      <c r="N161" s="1" t="n">
         <v>45875</v>
       </c>
     </row>
@@ -8912,17 +9780,21 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr">
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="L162" s="1" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>£8.0 million</t>
         </is>
       </c>
-      <c r="L162" s="1" t="n">
+      <c r="N162" s="1" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -8958,17 +9830,21 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr">
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="L163" s="1" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>£4.5 million</t>
         </is>
       </c>
-      <c r="L163" s="1" t="n">
+      <c r="N163" s="1" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -9004,17 +9880,21 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr">
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="L164" s="1" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>£3.5 million</t>
         </is>
       </c>
-      <c r="L164" s="1" t="n">
+      <c r="N164" s="1" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -9050,17 +9930,21 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr">
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
         <is>
           <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="L165" s="1" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L165" s="1" t="n">
+      <c r="N165" s="1" t="n">
         <v>45889</v>
       </c>
     </row>
@@ -9096,17 +9980,21 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr">
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="L166" s="1" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L166" s="1" t="n">
+      <c r="N166" s="1" t="n">
         <v>45896</v>
       </c>
     </row>
@@ -9142,13 +10030,17 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr">
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
         <is>
           <t>Wednesday 17 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr"/>
       <c r="L167" s="1" t="n">
+        <v>45917.45833333334</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" s="1" t="n">
         <v>45896</v>
       </c>
     </row>
@@ -9184,17 +10076,21 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr">
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
         <is>
           <t>Wednesday 5 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="L168" s="1" t="n">
+        <v>45966.45833333334</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L168" s="1" t="n">
+      <c r="N168" s="1" t="n">
         <v>45896</v>
       </c>
     </row>
@@ -9230,17 +10126,21 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr">
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="L169" s="1" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L169" s="1" t="n">
+      <c r="N169" s="1" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -9276,17 +10176,21 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr">
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
         <is>
           <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr">
+      <c r="L170" s="1" t="n">
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L170" s="1" t="n">
+      <c r="N170" s="1" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -9322,17 +10226,21 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr">
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
         <is>
           <t>Tuesday 28 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
+      <c r="L171" s="1" t="n">
+        <v>45958.45833333334</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L171" s="1" t="n">
+      <c r="N171" s="1" t="n">
         <v>45910</v>
       </c>
     </row>
@@ -9368,17 +10276,21 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr">
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
+      <c r="L172" s="1" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>£40,000</t>
         </is>
       </c>
-      <c r="L172" s="1" t="n">
+      <c r="N172" s="1" t="n">
         <v>45910</v>
       </c>
     </row>
@@ -9414,17 +10326,19 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr">
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
         <is>
           <t>There is no submission deadline</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L173" s="1" t="n">
+      <c r="N173" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -9460,17 +10374,21 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr">
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
         <is>
           <t>Thursday 4 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="L174" s="1" t="n">
+        <v>45995.45833333334</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L174" s="1" t="n">
+      <c r="N174" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -9506,17 +10424,21 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr">
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
         <is>
           <t>Monday 3 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
+      <c r="L175" s="1" t="n">
+        <v>45964.45833333334</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>£25,000</t>
         </is>
       </c>
-      <c r="L175" s="1" t="n">
+      <c r="N175" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -9552,17 +10474,21 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr">
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
         <is>
           <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
+      <c r="L176" s="1" t="n">
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L176" s="1" t="n">
+      <c r="N176" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -9598,17 +10524,21 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr">
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
         <is>
           <t>Wednesday 3 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="L177" s="1" t="n">
+        <v>45994.45833333334</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L177" s="1" t="n">
+      <c r="N177" s="1" t="n">
         <v>45924</v>
       </c>
     </row>
@@ -9644,17 +10574,21 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr">
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
         <is>
           <t>Wednesday 21 January 2026 11:00am</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr">
+      <c r="L178" s="1" t="n">
+        <v>46043.45833333334</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>£600,000</t>
         </is>
       </c>
-      <c r="L178" s="1" t="n">
+      <c r="N178" s="1" t="n">
         <v>45931</v>
       </c>
     </row>
@@ -9690,17 +10624,21 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr">
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr">
+      <c r="L179" s="1" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M179" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L179" s="1" t="n">
+      <c r="N179" s="1" t="n">
         <v>45938</v>
       </c>
     </row>
@@ -9736,13 +10674,17 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr">
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
         <is>
           <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr"/>
       <c r="L180" s="1" t="n">
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" s="1" t="n">
         <v>45938</v>
       </c>
     </row>
@@ -9778,17 +10720,21 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr">
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="L181" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M181" t="inlineStr">
         <is>
           <t>£4.0 million</t>
         </is>
       </c>
-      <c r="L181" s="1" t="n">
+      <c r="N181" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -9824,17 +10770,21 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr">
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="L182" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L182" s="1" t="n">
+      <c r="N182" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -9870,17 +10820,21 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr">
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="L183" s="1" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M183" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L183" s="1" t="n">
+      <c r="N183" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -9916,17 +10870,21 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr">
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="L184" s="1" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M184" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L184" s="1" t="n">
+      <c r="N184" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -9962,17 +10920,21 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr">
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="L185" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M185" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L185" s="1" t="n">
+      <c r="N185" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -10008,17 +10970,21 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr">
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="L186" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M186" t="inlineStr">
         <is>
           <t>£4.0 million</t>
         </is>
       </c>
-      <c r="L186" s="1" t="n">
+      <c r="N186" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -10054,13 +11020,17 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr">
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr"/>
       <c r="L187" s="1" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -10096,17 +11066,21 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr">
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="L188" s="1" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M188" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L188" s="1" t="n">
+      <c r="N188" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -10142,17 +11116,21 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr">
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="L189" s="1" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M189" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L189" s="1" t="n">
+      <c r="N189" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -10188,17 +11166,21 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr">
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="L190" s="1" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M190" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L190" s="1" t="n">
+      <c r="N190" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -10234,17 +11216,21 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr">
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
         <is>
           <t>Wednesday 7 January 2026 11:00am</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="L191" s="1" t="n">
+        <v>46029.45833333334</v>
+      </c>
+      <c r="M191" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L191" s="1" t="n">
+      <c r="N191" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -10280,17 +11266,21 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr">
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="L192" s="1" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M192" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L192" s="1" t="n">
+      <c r="N192" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -10326,17 +11316,21 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr">
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="L193" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M193" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L193" s="1" t="n">
+      <c r="N193" s="1" t="n">
         <v>45959</v>
       </c>
     </row>
@@ -10372,17 +11366,21 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr">
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="L194" s="1" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M194" t="inlineStr">
         <is>
           <t>£3.4 million</t>
         </is>
       </c>
-      <c r="L194" s="1" t="n">
+      <c r="N194" s="1" t="n">
         <v>45959</v>
       </c>
     </row>
@@ -10418,17 +11416,21 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr">
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr">
+      <c r="L195" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M195" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L195" s="1" t="n">
+      <c r="N195" s="1" t="n">
         <v>45959</v>
       </c>
     </row>
@@ -10464,17 +11466,21 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr">
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="L196" s="1" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M196" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L196" s="1" t="n">
+      <c r="N196" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -10510,17 +11516,21 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr">
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="L197" s="1" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M197" t="inlineStr">
         <is>
           <t>£4.0 million</t>
         </is>
       </c>
-      <c r="L197" s="1" t="n">
+      <c r="N197" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -10556,13 +11566,17 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr">
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr"/>
       <c r="L198" s="1" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -10598,17 +11612,21 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr">
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr">
+      <c r="L199" s="1" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M199" t="inlineStr">
         <is>
           <t>£750,000</t>
         </is>
       </c>
-      <c r="L199" s="1" t="n">
+      <c r="N199" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -10644,17 +11662,21 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr">
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr">
+      <c r="L200" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M200" t="inlineStr">
         <is>
           <t>£75,000</t>
         </is>
       </c>
-      <c r="L200" s="1" t="n">
+      <c r="N200" s="1" t="n">
         <v>45987</v>
       </c>
     </row>
@@ -10690,17 +11712,21 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr">
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
         <is>
           <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="L201" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M201" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L201" s="1" t="n">
+      <c r="N201" s="1" t="n">
         <v>45987</v>
       </c>
     </row>
@@ -10736,17 +11762,21 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr">
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
         <is>
           <t>Tuesday 3 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr">
+      <c r="L202" s="1" t="n">
+        <v>46056.45833333334</v>
+      </c>
+      <c r="M202" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L202" s="1" t="n">
+      <c r="N202" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10782,17 +11812,21 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr">
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
         <is>
           <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr">
+      <c r="L203" s="1" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L203" s="1" t="n">
+      <c r="N203" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10828,17 +11862,21 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr">
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
         <is>
           <t>Wednesday 25 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="L204" s="1" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M204" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L204" s="1" t="n">
+      <c r="N204" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -10874,17 +11912,21 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr">
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
         <is>
           <t>Thursday 7 May 2026 11:00am</t>
         </is>
       </c>
-      <c r="K205" t="inlineStr">
+      <c r="L205" s="1" t="n">
+        <v>46149.45833333334</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L205" s="1" t="n">
+      <c r="N205" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -10920,17 +11962,21 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr">
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr">
+      <c r="L206" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M206" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L206" s="1" t="n">
+      <c r="N206" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -10966,17 +12012,21 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr">
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="L207" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M207" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L207" s="1" t="n">
+      <c r="N207" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -11012,17 +12062,21 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr">
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr">
+      <c r="L208" s="1" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L208" s="1" t="n">
+      <c r="N208" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -11058,17 +12112,21 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr">
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
         <is>
           <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K209" t="inlineStr">
+      <c r="L209" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L209" s="1" t="n">
+      <c r="N209" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -11104,17 +12162,21 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr">
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
         <is>
           <t>Wednesday 18 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K210" t="inlineStr">
+      <c r="L210" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L210" s="1" t="n">
+      <c r="N210" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -11150,17 +12212,21 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr">
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
         <is>
           <t>Wednesday 4 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K211" t="inlineStr">
+      <c r="L211" s="1" t="n">
+        <v>46085.45833333334</v>
+      </c>
+      <c r="M211" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L211" s="1" t="n">
+      <c r="N211" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -11196,17 +12262,21 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr">
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
         <is>
           <t>Wednesday 11 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr">
+      <c r="L212" s="1" t="n">
+        <v>46064.45833333334</v>
+      </c>
+      <c r="M212" t="inlineStr">
         <is>
           <t>£32,000</t>
         </is>
       </c>
-      <c r="L212" s="1" t="n">
+      <c r="N212" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -11242,17 +12312,21 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr">
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
         <is>
           <t>Wednesday 25 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr">
+      <c r="L213" s="1" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M213" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L213" s="1" t="n">
+      <c r="N213" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -11288,18 +12362,122 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr">
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
         <is>
           <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr">
+      <c r="L214" s="1" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M214" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L214" s="1" t="n">
+      <c r="N214" s="1" t="n">
         <v>46043</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2378/overview/ae120ce2-7b72-4cf2-8dde-f78b02d5996d</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2026-01-28 10:24</t>
+        </is>
+      </c>
+      <c r="E215" s="1" t="n">
+        <v>46050.43333333333</v>
+      </c>
+      <c r="F215" t="b">
+        <v>1</v>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="b">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>Wednesday 18 March 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L215" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>£225,000</t>
+        </is>
+      </c>
+      <c r="N215" s="1" t="n">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TechLocal AI Professional Degree and Traineeship Accelerator</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2375/overview/6431359e-eb5c-4f76-b49d-299948107fbd</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2026-01-28 10:24</t>
+        </is>
+      </c>
+      <c r="E216" s="1" t="n">
+        <v>46050.43333333333</v>
+      </c>
+      <c r="F216" t="b">
+        <v>1</v>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="b">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Wednesday 18 March 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L216" s="1" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>£300,000</t>
+        </is>
+      </c>
+      <c r="N216" s="1" t="n">
+        <v>46050</v>
       </c>
     </row>
   </sheetData>
@@ -11358,10 +12536,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -11371,10 +12549,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C4" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
@@ -11414,7 +12592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11465,20 +12643,30 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>

--- a/outputs/InnovateUK_Funding_Opportunities_Latest.xlsx
+++ b/outputs/InnovateUK_Funding_Opportunities_Latest.xlsx
@@ -950,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,21 +1038,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>European Space Agency: Sustainable Wetlands</t>
+          <t>Inclusive Mobility Challenge: Safe Urban Navigation for People with Access Needs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/european-space-agency-sustainable-wetlands/</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/inclusive-mobility-challenge-safe-urban-navigation-for-people-with-access-needs/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-14 10:14</t>
+          <t>2026-02-16 10:37</t>
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>46067.42638888889</v>
+        <v>46069.44236111111</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1063,21 +1063,25 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16/03/2026</t>
+          <t>16/02/2026</t>
         </is>
       </c>
       <c r="J2" s="1" t="n">
-        <v>46097</v>
+        <v>46069</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>01/05/2026                              17:00</t>
+          <t>27/03/2026                              12:00</t>
         </is>
       </c>
       <c r="L2" s="1" t="n">
-        <v>46143.70833333334</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>46108.5</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>£500,000</t>
+        </is>
+      </c>
       <c r="N2" s="1" t="n">
         <v>46064</v>
       </c>
@@ -1085,26 +1089,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Innovate Funding Service</t>
+          <t>Innovate UK Business Connect</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
+          <t>European Space Agency: Sustainable Wetlands</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2392/overview/b8b93732-6326-4aed-9af3-334e4cc5ecc0</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/european-space-agency-sustainable-wetlands/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-02-13 10:35</t>
+          <t>2026-02-14 10:14</t>
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>46066.44097222222</v>
+        <v>46067.42638888889</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1113,21 +1117,23 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>16/03/2026</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>46097</v>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wednesday 15 April 2026 11:00am</t>
+          <t>01/05/2026                              17:00</t>
         </is>
       </c>
       <c r="L3" s="1" t="n">
-        <v>46127.45833333334</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>£1.0 million</t>
-        </is>
-      </c>
+        <v>46143.70833333334</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" s="1" t="n">
         <v>46064</v>
       </c>
@@ -1135,26 +1141,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Innovate UK Business Connect</t>
+          <t>Innovate Funding Service</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARIA: Scaling Trust - Tooling and Fundamental Research</t>
+          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/aria-scaling-trust-tooling-and-fundamental-research/</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2392/overview/b8b93732-6326-4aed-9af3-334e4cc5ecc0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02-13 10:28</t>
+          <t>2026-02-13 10:35</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>46066.43611111111</v>
+        <v>46066.44097222222</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1163,25 +1169,19 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>09/02/2026</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>46062</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>24/03/2026                              14:00</t>
+          <t>Wednesday 15 April 2026 11:00am</t>
         </is>
       </c>
       <c r="L4" s="1" t="n">
-        <v>46105.58333333334</v>
+        <v>46127.45833333334</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>£200</t>
+          <t>£1.0 million</t>
         </is>
       </c>
       <c r="N4" s="1" t="n">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
+          <t>ARIA: Scaling Trust - Tooling and Fundamental Research</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/uk-germany-collaborative-innovation-for-quantum-technologies-2026/</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/aria-scaling-trust-tooling-and-fundamental-research/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1221,23 +1221,23 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12/02/2026</t>
+          <t>09/02/2026</t>
         </is>
       </c>
       <c r="J5" s="1" t="n">
-        <v>46065</v>
+        <v>46062</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15/04/2026                              11:00</t>
+          <t>24/03/2026                              14:00</t>
         </is>
       </c>
       <c r="L5" s="1" t="n">
-        <v>46127.45833333334</v>
+        <v>46105.58333333334</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>£3.0 million</t>
+          <t>£200</t>
         </is>
       </c>
       <c r="N5" s="1" t="n">
@@ -1252,12 +1252,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
+          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/contracts-for-innovation-in-drug-and-alcohol-addiction-healthcare/</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/uk-germany-collaborative-innovation-for-quantum-technologies-2026/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1277,23 +1277,23 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16/02/2026</t>
+          <t>12/02/2026</t>
         </is>
       </c>
       <c r="J6" s="1" t="n">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>06/05/2026                              11:00</t>
+          <t>15/04/2026                              11:00</t>
         </is>
       </c>
       <c r="L6" s="1" t="n">
-        <v>46148.45833333334</v>
+        <v>46127.45833333334</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>£20.0 million</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N6" s="1" t="n">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zero Emission Flight Demonstrator Round 1</t>
+          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/zero-emission-flight-demonstrator-round-1/</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/contracts-for-innovation-in-drug-and-alcohol-addiction-healthcare/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1341,15 +1341,15 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>01/04/2026                              11:00</t>
+          <t>06/05/2026                              11:00</t>
         </is>
       </c>
       <c r="L7" s="1" t="n">
-        <v>46113.45833333334</v>
+        <v>46148.45833333334</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>£8.0 million</t>
+          <t>£20.0 million</t>
         </is>
       </c>
       <c r="N7" s="1" t="n">
@@ -1359,7 +1359,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Innovate Funding Service</t>
+          <t>Innovate UK Business Connect</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1369,16 +1369,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2397/overview/752074ec-5f01-46d8-863f-596300a11651</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/zero-emission-flight-demonstrator-round-1/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-12 10:40</t>
+          <t>2026-02-13 10:28</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
-        <v>46065.44444444445</v>
+        <v>46066.43611111111</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1387,11 +1387,17 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>16/02/2026</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>46069</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wednesday 1 April 2026 11:00am</t>
+          <t>01/04/2026                              11:00</t>
         </is>
       </c>
       <c r="L8" s="1" t="n">
@@ -1399,7 +1405,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£8.0 million</t>
         </is>
       </c>
       <c r="N8" s="1" t="n">
@@ -1414,12 +1420,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
+          <t>Zero Emission Flight Demonstrator Round 1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2395/overview/3d49fbc4-6e09-4dd8-9ac8-8e5f88facd8d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2397/overview/752074ec-5f01-46d8-863f-596300a11651</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1441,15 +1447,15 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wednesday 6 May 2026 11:00am</t>
+          <t>Wednesday 1 April 2026 11:00am</t>
         </is>
       </c>
       <c r="L9" s="1" t="n">
-        <v>46148.45833333334</v>
+        <v>46113.45833333334</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N9" s="1" t="n">
@@ -1464,12 +1470,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
+          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2394/overview/33b56af8-353f-46ac-bb66-a0928731c0fc</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2395/overview/3d49fbc4-6e09-4dd8-9ac8-8e5f88facd8d</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1499,7 +1505,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>£10.0 million</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N10" s="1" t="n">
@@ -1509,7 +1515,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Innovate UK Business Connect</t>
+          <t>Innovate Funding Service</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1519,16 +1525,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/advancing-innovation-in-drug-and-alcohol-addiction-healthcare/</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2394/overview/33b56af8-353f-46ac-bb66-a0928731c0fc</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-02-12 10:33</t>
+          <t>2026-02-12 10:40</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>46065.43958333333</v>
+        <v>46065.44444444445</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1537,17 +1543,11 @@
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>16/02/2026</t>
-        </is>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>46069</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>06/05/2026                              11:00</t>
+          <t>Wednesday 6 May 2026 11:00am</t>
         </is>
       </c>
       <c r="L11" s="1" t="n">
@@ -1570,12 +1570,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Critical material recovery from e-waste recycling process by-products</t>
+          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/critical-material-recovery-from-e-waste-recycling-process-by-products/</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/advancing-innovation-in-drug-and-alcohol-addiction-healthcare/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1603,14 +1603,70 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>06/05/2026                              11:00</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>46148.45833333334</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>£10.0 million</t>
+        </is>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Critical material recovery from e-waste recycling process by-products</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/critical-material-recovery-from-e-waste-recycling-process-by-products/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-02-12 10:33</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>46065.43958333333</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>16/02/2026</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>46069</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>31/03/2026                              23:59</t>
         </is>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="L13" s="1" t="n">
         <v>46112.99930555555</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" s="1" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" s="1" t="n">
         <v>46064</v>
       </c>
     </row>
@@ -1663,10 +1719,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -2170,7 +2226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N247"/>
+  <dimension ref="A1:N248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9413,26 +9469,26 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Innovate Funding Service</t>
+          <t>Innovate UK Business Connect</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Future Leaders Fellowships: Round 10, business and non-academic</t>
+          <t>Inclusive Mobility Challenge: Safe Urban Navigation for People with Access Needs</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2058/overview/0f904547-f415-4fb9-94a7-0701c38a2ba1</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/inclusive-mobility-challenge-safe-urban-navigation-for-people-with-access-needs/</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025-06-14 08:41</t>
+          <t>2026-02-16 10:37</t>
         </is>
       </c>
       <c r="E145" s="1" t="n">
-        <v>45822.36180555556</v>
+        <v>46069.44236111111</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
@@ -9441,23 +9497,29 @@
       <c r="H145" t="b">
         <v>0</v>
       </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>16/02/2026</t>
+        </is>
+      </c>
+      <c r="J145" s="1" t="n">
+        <v>46069</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Wednesday 5 November 2025 11:00am</t>
+          <t>27/03/2026                              12:00</t>
         </is>
       </c>
       <c r="L145" s="1" t="n">
-        <v>45966.45833333334</v>
+        <v>46108.5</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>£3.0 million</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N145" s="1" t="n">
-        <v>45819</v>
+        <v>46064</v>
       </c>
     </row>
     <row r="146">
@@ -9468,12 +9530,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 2</t>
+          <t>Future Leaders Fellowships: Round 10, business and non-academic</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2223/overview/4e423e05-3228-45e3-9cfe-0b39d1227307</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2058/overview/0f904547-f415-4fb9-94a7-0701c38a2ba1</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -9495,15 +9557,15 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Thursday 24 July 2025 11:00am</t>
+          <t>Wednesday 5 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L146" s="1" t="n">
-        <v>45862.45833333334</v>
+        <v>45966.45833333334</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N146" s="1" t="n">
@@ -9518,12 +9580,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MSI Improving energy or resource efficiency in manufacturing FS</t>
+          <t>ADOPT Facilitator Support Grant: Round 2</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2225/overview/c43ef163-3872-4178-b80d-88c406691610</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2223/overview/4e423e05-3228-45e3-9cfe-0b39d1227307</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -9545,15 +9607,15 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
+          <t>Thursday 24 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L147" s="1" t="n">
-        <v>45840.45833333334</v>
+        <v>45862.45833333334</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£2,500</t>
         </is>
       </c>
       <c r="N147" s="1" t="n">
@@ -9568,12 +9630,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>New Innovators in Marine and Maritime, Great South West</t>
+          <t>MSI Improving energy or resource efficiency in manufacturing FS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2215/overview/67b86d6c-bab9-4a01-aacc-3da2e57edc99</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2225/overview/c43ef163-3872-4178-b80d-88c406691610</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -9603,7 +9665,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>£50,000</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N148" s="1" t="n">
@@ -9618,12 +9680,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Commercialising Knowledge Assets Fund (CKAF) Autumn</t>
+          <t>New Innovators in Marine and Maritime, Great South West</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2217/overview/c555f64e-5485-4e49-89b8-32d61fac4ff0</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2215/overview/67b86d6c-bab9-4a01-aacc-3da2e57edc99</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -9645,15 +9707,15 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Thursday 4 September 2025 11:00am</t>
+          <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L149" s="1" t="n">
-        <v>45904.45833333334</v>
+        <v>45840.45833333334</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>£250,000</t>
+          <t>£50,000</t>
         </is>
       </c>
       <c r="N149" s="1" t="n">
@@ -9668,12 +9730,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ATI Programme strategic batch: EoI – June 2025</t>
+          <t>Commercialising Knowledge Assets Fund (CKAF) Autumn</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2218/overview/a45dcc8a-b621-4a79-9e4d-046e19b6b1e9</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2217/overview/c555f64e-5485-4e49-89b8-32d61fac4ff0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -9695,13 +9757,17 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Wednesday 18 June 2025 11:00am</t>
+          <t>Thursday 4 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L150" s="1" t="n">
-        <v>45826.45833333334</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>45904.45833333334</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>£250,000</t>
+        </is>
+      </c>
       <c r="N150" s="1" t="n">
         <v>45819</v>
       </c>
@@ -9714,12 +9780,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Defra Farming Innovation Investor Partnership</t>
+          <t>ATI Programme strategic batch: EoI – June 2025</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2207/overview/05e5263b-75a1-49a0-87f0-261541af0840</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2218/overview/a45dcc8a-b621-4a79-9e4d-046e19b6b1e9</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -9741,17 +9807,13 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
+          <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L151" s="1" t="n">
-        <v>45840.45833333334</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>£3.0 million</t>
-        </is>
-      </c>
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
       <c r="N151" s="1" t="n">
         <v>45819</v>
       </c>
@@ -9764,12 +9826,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C3</t>
+          <t>Defra Farming Innovation Investor Partnership</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2204/overview/9da241b9-1fd8-49fb-b8d0-4a81a637b3b5</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2207/overview/05e5263b-75a1-49a0-87f0-261541af0840</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -9791,15 +9853,15 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
+          <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L152" s="1" t="n">
-        <v>45833.45833333334</v>
+        <v>45840.45833333334</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>£150,000</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N152" s="1" t="n">
@@ -9814,12 +9876,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ofgem Strategic Innovation Fund Round 4 Discovery C3</t>
+          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C3</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2200/overview/0f0721c8-5a37-4046-8e4f-7649194e8adc</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2204/overview/9da241b9-1fd8-49fb-b8d0-4a81a637b3b5</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -9864,12 +9926,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Scaling community initiatives in diet and exercise</t>
+          <t>Ofgem Strategic Innovation Fund Round 4 Discovery C3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2191/overview/6a097cf8-8f81-495d-b56f-3f240cfde64c</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2200/overview/0f0721c8-5a37-4046-8e4f-7649194e8adc</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -9891,15 +9953,15 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Wednesday 18 June 2025 11:00am</t>
+          <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L154" s="1" t="n">
-        <v>45826.45833333334</v>
+        <v>45833.45833333334</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>£250,000</t>
+          <t>£150,000</t>
         </is>
       </c>
       <c r="N154" s="1" t="n">
@@ -9914,12 +9976,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Quantum Sensors and PNT Missions Primer</t>
+          <t>Contracts for Innovation: Scaling community initiatives in diet and exercise</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2209/overview/28f8801b-a8b3-48c8-8c81-64d75341b81d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2191/overview/6a097cf8-8f81-495d-b56f-3f240cfde64c</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -9941,15 +10003,15 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
+          <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L155" s="1" t="n">
-        <v>45840.45833333334</v>
+        <v>45826.45833333334</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£250,000</t>
         </is>
       </c>
       <c r="N155" s="1" t="n">
@@ -9964,12 +10026,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Net Zero Living Tech Trials, phase 3</t>
+          <t>Contracts for Innovation: Quantum Sensors and PNT Missions Primer</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2189/overview/a59ac38e-662b-49a5-b7f9-a44c2cc38c61</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2209/overview/28f8801b-a8b3-48c8-8c81-64d75341b81d</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -9991,15 +10053,15 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
+          <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L156" s="1" t="n">
-        <v>45833.45833333334</v>
+        <v>45840.45833333334</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N156" s="1" t="n">
@@ -10014,12 +10076,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Clean Air, Phase 3</t>
+          <t>Contracts for Innovation: Net Zero Living Tech Trials, phase 3</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2181/overview/02aad9d2-c984-4bd5-a3f6-80f25ec62870</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2189/overview/a59ac38e-662b-49a5-b7f9-a44c2cc38c61</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -10064,12 +10126,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: DSbD Advancing CHERI Tools and software</t>
+          <t>Contracts for Innovation: Clean Air, Phase 3</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2194/overview/91c68630-20eb-4247-8296-ae1737637756</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2181/overview/02aad9d2-c984-4bd5-a3f6-80f25ec62870</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -10091,15 +10153,15 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Wednesday 18 June 2025 11:00am</t>
+          <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L158" s="1" t="n">
-        <v>45826.45833333334</v>
+        <v>45833.45833333334</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>£3.0 million</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N158" s="1" t="n">
@@ -10114,12 +10176,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: DSbD Advancing CHERI RISC-V Devices</t>
+          <t>Contracts for Innovation: DSbD Advancing CHERI Tools and software</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2198/overview/b2e2fd41-d372-4e33-a6df-8bfefb8de0f9</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2194/overview/91c68630-20eb-4247-8296-ae1737637756</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -10149,7 +10211,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N159" s="1" t="n">
@@ -10164,12 +10226,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Canada-UK Semiconductors</t>
+          <t>Contracts for Innovation: DSbD Advancing CHERI RISC-V Devices</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2192/overview/3906cbd5-fec2-4c1f-897d-ccab071708b3</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2198/overview/b2e2fd41-d372-4e33-a6df-8bfefb8de0f9</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -10191,15 +10253,15 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
+          <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L160" s="1" t="n">
-        <v>45945.45833333334</v>
+        <v>45826.45833333334</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N160" s="1" t="n">
@@ -10214,12 +10276,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Accelerated Knowledge Transfer 4 (AKT4) Addiction</t>
+          <t>Canada-UK Semiconductors</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2178/overview/2699060f-dd6f-415b-ae47-bead15aa430e</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2192/overview/3906cbd5-fec2-4c1f-897d-ccab071708b3</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -10241,15 +10303,15 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
+          <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L161" s="1" t="n">
-        <v>45840.45833333334</v>
+        <v>45945.45833333334</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>£35,000</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N161" s="1" t="n">
@@ -10264,12 +10326,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Innovate UK innovation loans future economy: Round 21</t>
+          <t>Accelerated Knowledge Transfer 4 (AKT4) Addiction</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2188/overview/20c89a26-2479-4f80-b35a-b62ed3b9b3ce</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2178/overview/2699060f-dd6f-415b-ae47-bead15aa430e</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -10299,7 +10361,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>£2.0 million</t>
+          <t>£35,000</t>
         </is>
       </c>
       <c r="N162" s="1" t="n">
@@ -10314,12 +10376,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Farming Futures R&amp;D Fund: Precision Breeding Competition</t>
+          <t>Innovate UK innovation loans future economy: Round 21</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2168/overview/0fef9171-75b0-4f3e-acef-42920e7e5d5e</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2188/overview/20c89a26-2479-4f80-b35a-b62ed3b9b3ce</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -10341,15 +10403,15 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
+          <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L163" s="1" t="n">
-        <v>45833.45833333334</v>
+        <v>45840.45833333334</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>£2.5 million</t>
+          <t>£2.0 million</t>
         </is>
       </c>
       <c r="N163" s="1" t="n">
@@ -10364,12 +10426,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Farming Futures R&amp;D Fund: low emissions farming</t>
+          <t>Farming Futures R&amp;D Fund: Precision Breeding Competition</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2169/overview/64b0d550-3f46-4ab4-a0cd-5fa7ac488cb6</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2168/overview/0fef9171-75b0-4f3e-acef-42920e7e5d5e</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -10414,12 +10476,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Investor Partnerships: Clean Energy and Climate Technologies</t>
+          <t>Farming Futures R&amp;D Fund: low emissions farming</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2175/overview/7487b4f1-51e6-4f15-a4c8-f103559d14bb</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2169/overview/64b0d550-3f46-4ab4-a0cd-5fa7ac488cb6</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -10441,15 +10503,15 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
+          <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L165" s="1" t="n">
-        <v>45840.45833333334</v>
+        <v>45833.45833333334</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>£2.0 million</t>
+          <t>£2.5 million</t>
         </is>
       </c>
       <c r="N165" s="1" t="n">
@@ -10464,12 +10526,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant: Round 1</t>
+          <t>Investor Partnerships: Clean Energy and Climate Technologies</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2162/overview/c35de0a9-5072-4142-8a52-1cdce8ef3871</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2175/overview/7487b4f1-51e6-4f15-a4c8-f103559d14bb</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -10491,15 +10553,15 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
+          <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L166" s="1" t="n">
-        <v>45833.45833333334</v>
+        <v>45840.45833333334</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£2.0 million</t>
         </is>
       </c>
       <c r="N166" s="1" t="n">
@@ -10514,12 +10576,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Horizon Europe Guarantee - EIT KICs 2023</t>
+          <t>Full ADOPT Grant: Round 1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1585/overview/32135a71-171a-46bf-ad56-e2e65a1a3574</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2162/overview/c35de0a9-5072-4142-8a52-1cdce8ef3871</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -10541,11 +10603,17 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Thursday 27 November 2025 4:00pm</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
+          <t>Wednesday 25 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L167" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>£100,000</t>
+        </is>
+      </c>
       <c r="N167" s="1" t="n">
         <v>45819</v>
       </c>
@@ -10558,12 +10626,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Horizon Europe Guarantee Extension</t>
+          <t>Horizon Europe Guarantee - EIT KICs 2023</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1389/overview/b900fdc4-c48d-4d8a-8733-ce4ca210ae9a</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1585/overview/32135a71-171a-46bf-ad56-e2e65a1a3574</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -10602,21 +10670,21 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 3</t>
+          <t>Horizon Europe Guarantee Extension</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2184/overview/c599b17c-e13a-4e13-995e-53cc4d4508a1</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1389/overview/b900fdc4-c48d-4d8a-8733-ce4ca210ae9a</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025-06-16 22:04</t>
+          <t>2025-06-14 08:41</t>
         </is>
       </c>
       <c r="E169" s="1" t="n">
-        <v>45824.91944444444</v>
+        <v>45822.36180555556</v>
       </c>
       <c r="F169" t="b">
         <v>1</v>
@@ -10629,17 +10697,11 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Wednesday 17 September 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L169" s="1" t="n">
-        <v>45917.45833333334</v>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>£8,500</t>
-        </is>
-      </c>
+          <t>Thursday 27 November 2025 4:00pm</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
       <c r="N169" s="1" t="n">
         <v>45819</v>
       </c>
@@ -10652,21 +10714,21 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Agri-tech and food technology, Mid and North Wales - CRD</t>
+          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 3</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2212/overview/4411087f-2a92-4aed-b735-d1a813376bec</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2184/overview/c599b17c-e13a-4e13-995e-53cc4d4508a1</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025-06-26 08:52</t>
+          <t>2025-06-16 22:04</t>
         </is>
       </c>
       <c r="E170" s="1" t="n">
-        <v>45834.36944444444</v>
+        <v>45824.91944444444</v>
       </c>
       <c r="F170" t="b">
         <v>1</v>
@@ -10679,19 +10741,19 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Wednesday 20 August 2025 11:00am</t>
+          <t>Wednesday 17 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L170" s="1" t="n">
-        <v>45889.45833333334</v>
+        <v>45917.45833333334</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£8,500</t>
         </is>
       </c>
       <c r="N170" s="1" t="n">
-        <v>45833</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="171">
@@ -10702,12 +10764,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant Round 2</t>
+          <t>Agri-tech and food technology, Mid and North Wales - CRD</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2222/overview/c3d5b2f9-e4d4-4ddc-99a2-589904ac3d42</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2212/overview/4411087f-2a92-4aed-b735-d1a813376bec</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -10737,7 +10799,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N171" s="1" t="n">
@@ -10752,21 +10814,21 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Innovate UK Innovation Loans Round 22</t>
+          <t>Full ADOPT Grant Round 2</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2236/overview/70cbae59-4e67-4626-8cb0-6bbbfc0cf6b7</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2222/overview/c3d5b2f9-e4d4-4ddc-99a2-589904ac3d42</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025-07-03 08:52</t>
+          <t>2025-06-26 08:52</t>
         </is>
       </c>
       <c r="E172" s="1" t="n">
-        <v>45841.36944444444</v>
+        <v>45834.36944444444</v>
       </c>
       <c r="F172" t="b">
         <v>1</v>
@@ -10779,19 +10841,19 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Wednesday 27 August 2025 11:00am</t>
+          <t>Wednesday 20 August 2025 11:00am</t>
         </is>
       </c>
       <c r="L172" s="1" t="n">
-        <v>45896.45833333334</v>
+        <v>45889.45833333334</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N172" s="1" t="n">
-        <v>45840</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="173">
@@ -10802,21 +10864,21 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Growth Catalyst Early Stage: New Innovators</t>
+          <t>Innovate UK Innovation Loans Round 22</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2220/overview/bcfd2780-f307-4434-be32-46889a239024</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2236/overview/70cbae59-4e67-4626-8cb0-6bbbfc0cf6b7</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2025-07-07 08:54</t>
+          <t>2025-07-03 08:52</t>
         </is>
       </c>
       <c r="E173" s="1" t="n">
-        <v>45845.37083333333</v>
+        <v>45841.36944444444</v>
       </c>
       <c r="F173" t="b">
         <v>1</v>
@@ -10829,15 +10891,15 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Wednesday 6 August 2025 11:00am</t>
+          <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
       <c r="L173" s="1" t="n">
-        <v>45875.45833333334</v>
+        <v>45896.45833333334</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>£50,000</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N173" s="1" t="n">
@@ -10852,12 +10914,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ATI Programme strategic batch: EoI – July 2025</t>
+          <t>Growth Catalyst Early Stage: New Innovators</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2228/overview/5ccf059d-ae66-4f72-a319-4b12cbd46d1c</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2220/overview/bcfd2780-f307-4434-be32-46889a239024</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -10879,13 +10941,17 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Wednesday 23 July 2025 11:00am</t>
+          <t>Wednesday 6 August 2025 11:00am</t>
         </is>
       </c>
       <c r="L174" s="1" t="n">
-        <v>45861.45833333334</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>45875.45833333334</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>£50,000</t>
+        </is>
+      </c>
       <c r="N174" s="1" t="n">
         <v>45840</v>
       </c>
@@ -10898,21 +10964,21 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Resource Efficient Construction Impacts</t>
+          <t>ATI Programme strategic batch: EoI – July 2025</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2242/overview/51b1338a-0d60-43de-b062-fe7a48a7d42f</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2228/overview/5ccf059d-ae66-4f72-a319-4b12cbd46d1c</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025-07-09 08:54</t>
+          <t>2025-07-07 08:54</t>
         </is>
       </c>
       <c r="E175" s="1" t="n">
-        <v>45847.37083333333</v>
+        <v>45845.37083333333</v>
       </c>
       <c r="F175" t="b">
         <v>1</v>
@@ -10925,19 +10991,15 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Wednesday 27 August 2025 11:00am</t>
+          <t>Wednesday 23 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L175" s="1" t="n">
-        <v>45896.45833333334</v>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>£300,000</t>
-        </is>
-      </c>
+        <v>45861.45833333334</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
       <c r="N175" s="1" t="n">
-        <v>45847</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="176">
@@ -10948,12 +11010,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Resource Efficient Chemicals Impacts</t>
+          <t>Contracts for Innovation: Resource Efficient Construction Impacts</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2240/overview/10f28eca-01f0-4abf-8e0c-998151fe747b</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2242/overview/51b1338a-0d60-43de-b062-fe7a48a7d42f</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -10998,12 +11060,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Resource Efficient Automotive Impacts</t>
+          <t>Contracts for Innovation: Resource Efficient Chemicals Impacts</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2241/overview/baec7aff-ca8b-456c-9e4d-d6eb9621a988</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2240/overview/10f28eca-01f0-4abf-8e0c-998151fe747b</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -11048,12 +11110,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Future Flight: Regional Demonstrator 2</t>
+          <t>Contracts for Innovation: Resource Efficient Automotive Impacts</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2239/overview/7c5a9acd-4b31-414a-8e35-20dd1df3a2a1</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2241/overview/baec7aff-ca8b-456c-9e4d-d6eb9621a988</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -11075,15 +11137,15 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Thursday 17 July 2025 11:00am</t>
+          <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
       <c r="L178" s="1" t="n">
-        <v>45855.45833333334</v>
+        <v>45896.45833333334</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>£200,000</t>
+          <t>£300,000</t>
         </is>
       </c>
       <c r="N178" s="1" t="n">
@@ -11098,21 +11160,21 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DRIVE35 Scale-up: Feasibility Studies</t>
+          <t>Future Flight: Regional Demonstrator 2</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2247/overview/53da287a-c141-48d2-a3eb-f854e14c6578</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2239/overview/7c5a9acd-4b31-414a-8e35-20dd1df3a2a1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2025-07-15 08:20</t>
+          <t>2025-07-09 08:54</t>
         </is>
       </c>
       <c r="E179" s="1" t="n">
-        <v>45853.34722222222</v>
+        <v>45847.37083333333</v>
       </c>
       <c r="F179" t="b">
         <v>1</v>
@@ -11125,15 +11187,15 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Wednesday 3 September 2025 11:00am</t>
+          <t>Thursday 17 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L179" s="1" t="n">
-        <v>45903.45833333334</v>
+        <v>45855.45833333334</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>£750,000</t>
+          <t>£200,000</t>
         </is>
       </c>
       <c r="N179" s="1" t="n">
@@ -11148,12 +11210,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DRIVE35 Innovation Fund: Demonstrate</t>
+          <t>DRIVE35 Scale-up: Feasibility Studies</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2245/overview/777781a3-f181-42b3-a05e-86b96754f28d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2247/overview/53da287a-c141-48d2-a3eb-f854e14c6578</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -11175,15 +11237,15 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Wednesday 1 October 2025 11:00am</t>
+          <t>Wednesday 3 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L180" s="1" t="n">
-        <v>45931.45833333334</v>
+        <v>45903.45833333334</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£750,000</t>
         </is>
       </c>
       <c r="N180" s="1" t="n">
@@ -11198,12 +11260,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DRIVE35 Innovation Fund: Collaborate</t>
+          <t>DRIVE35 Innovation Fund: Demonstrate</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2244/overview/84f81488-4936-4551-a315-7ec40cf1065d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2245/overview/777781a3-f181-42b3-a05e-86b96754f28d</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -11233,7 +11295,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>£25.0 million</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N181" s="1" t="n">
@@ -11248,21 +11310,21 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 3</t>
+          <t>DRIVE35 Innovation Fund: Collaborate</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2251/overview/f40e861a-c7f6-4597-ac5d-2e8d1b4f59f8</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2244/overview/84f81488-4936-4551-a315-7ec40cf1065d</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2025-07-25 08:20</t>
+          <t>2025-07-15 08:20</t>
         </is>
       </c>
       <c r="E182" s="1" t="n">
-        <v>45863.34722222222</v>
+        <v>45853.34722222222</v>
       </c>
       <c r="F182" t="b">
         <v>1</v>
@@ -11275,19 +11337,19 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Wednesday 3 September 2025 11:00am</t>
+          <t>Wednesday 1 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L182" s="1" t="n">
-        <v>45903.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£25.0 million</t>
         </is>
       </c>
       <c r="N182" s="1" t="n">
-        <v>45861</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="183">
@@ -11298,21 +11360,21 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Sovereign AI - Proof of concept</t>
+          <t>ADOPT Facilitator Support Grant: Round 3</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2259/overview/9061ddb2-fa12-45c9-8691-d36649c96e9c</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2251/overview/f40e861a-c7f6-4597-ac5d-2e8d1b4f59f8</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2025-08-07 08:21</t>
+          <t>2025-07-25 08:20</t>
         </is>
       </c>
       <c r="E183" s="1" t="n">
-        <v>45876.34791666667</v>
+        <v>45863.34722222222</v>
       </c>
       <c r="F183" t="b">
         <v>1</v>
@@ -11325,19 +11387,19 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Wednesday 10 September 2025 11:00am</t>
+          <t>Wednesday 3 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L183" s="1" t="n">
-        <v>45910.45833333334</v>
+        <v>45903.45833333334</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>£120,000</t>
+          <t>£2,500</t>
         </is>
       </c>
       <c r="N183" s="1" t="n">
-        <v>45875</v>
+        <v>45861</v>
       </c>
     </row>
     <row r="184">
@@ -11348,21 +11410,21 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Obesity Pathway Innovation Programme (OPIP): Strand 3</t>
+          <t>Sovereign AI - Proof of concept</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2186/overview/e51c18bc-21b3-450d-bdbc-2f43dad3b268</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2259/overview/9061ddb2-fa12-45c9-8691-d36649c96e9c</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2025-08-14 08:20</t>
+          <t>2025-08-07 08:21</t>
         </is>
       </c>
       <c r="E184" s="1" t="n">
-        <v>45883.34722222222</v>
+        <v>45876.34791666667</v>
       </c>
       <c r="F184" t="b">
         <v>1</v>
@@ -11375,19 +11437,19 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Wednesday 19 November 2025 11:00am</t>
+          <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L184" s="1" t="n">
-        <v>45980.45833333334</v>
+        <v>45910.45833333334</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>£8.0 million</t>
+          <t>£120,000</t>
         </is>
       </c>
       <c r="N184" s="1" t="n">
-        <v>45882</v>
+        <v>45875</v>
       </c>
     </row>
     <row r="185">
@@ -11398,12 +11460,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Obesity Pathway Innovation Programme (OPIP): Strand 2</t>
+          <t>Obesity Pathway Innovation Programme (OPIP): Strand 3</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2185/overview/d5b2aeb3-c2e4-4d78-9be3-f1d9919b0956</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2186/overview/e51c18bc-21b3-450d-bdbc-2f43dad3b268</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -11433,7 +11495,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>£4.5 million</t>
+          <t>£8.0 million</t>
         </is>
       </c>
       <c r="N185" s="1" t="n">
@@ -11448,12 +11510,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Obesity Pathway Innovation Programme (OPIP): Strand 1</t>
+          <t>Obesity Pathway Innovation Programme (OPIP): Strand 2</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2177/overview/696c1e3c-589d-4c37-8958-6255d1dc125a</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2185/overview/d5b2aeb3-c2e4-4d78-9be3-f1d9919b0956</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -11483,7 +11545,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>£3.5 million</t>
+          <t>£4.5 million</t>
         </is>
       </c>
       <c r="N186" s="1" t="n">
@@ -11498,21 +11560,21 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Analysis for Innovators: National Physical Laboratory Stage 1</t>
+          <t>Obesity Pathway Innovation Programme (OPIP): Strand 1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2266/overview/2fcad3ee-b5d6-4f01-8b1a-0e1af3c93023</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2177/overview/696c1e3c-589d-4c37-8958-6255d1dc125a</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2025-08-26 08:20</t>
+          <t>2025-08-14 08:20</t>
         </is>
       </c>
       <c r="E187" s="1" t="n">
-        <v>45895.34722222222</v>
+        <v>45883.34722222222</v>
       </c>
       <c r="F187" t="b">
         <v>1</v>
@@ -11525,19 +11587,19 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Wednesday 10 September 2025 11:00am</t>
+          <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L187" s="1" t="n">
-        <v>45910.45833333334</v>
+        <v>45980.45833333334</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£3.5 million</t>
         </is>
       </c>
       <c r="N187" s="1" t="n">
-        <v>45889</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="188">
@@ -11548,21 +11610,21 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant Round 3</t>
+          <t>Analysis for Innovators: National Physical Laboratory Stage 1</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2265/overview/fae182db-d9e5-4173-bb59-8fde361ccad4</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2266/overview/2fcad3ee-b5d6-4f01-8b1a-0e1af3c93023</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2025-08-27 08:18</t>
+          <t>2025-08-26 08:20</t>
         </is>
       </c>
       <c r="E188" s="1" t="n">
-        <v>45896.34583333333</v>
+        <v>45895.34722222222</v>
       </c>
       <c r="F188" t="b">
         <v>1</v>
@@ -11575,11 +11637,11 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
+          <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L188" s="1" t="n">
-        <v>45945.45833333334</v>
+        <v>45910.45833333334</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
@@ -11587,7 +11649,7 @@
         </is>
       </c>
       <c r="N188" s="1" t="n">
-        <v>45896</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="189">
@@ -11598,21 +11660,21 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ATI Programme strategic batch: EoI – September 2025</t>
+          <t>Full ADOPT Grant Round 3</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2273/overview/b30df196-a9a2-4e53-85e1-e3e6aaa5c5b7</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2265/overview/fae182db-d9e5-4173-bb59-8fde361ccad4</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2025-09-01 08:20</t>
+          <t>2025-08-27 08:18</t>
         </is>
       </c>
       <c r="E189" s="1" t="n">
-        <v>45901.34722222222</v>
+        <v>45896.34583333333</v>
       </c>
       <c r="F189" t="b">
         <v>1</v>
@@ -11625,13 +11687,17 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Wednesday 17 September 2025 11:00am</t>
+          <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L189" s="1" t="n">
-        <v>45917.45833333334</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>£100,000</t>
+        </is>
+      </c>
       <c r="N189" s="1" t="n">
         <v>45896</v>
       </c>
@@ -11644,21 +11710,21 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Farming Innovation Programme: Small R&amp;D Partnership Projects Rd 4</t>
+          <t>ATI Programme strategic batch: EoI – September 2025</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2010/overview/bcd5cf06-313c-4197-ae47-0035f674717f</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2273/overview/b30df196-a9a2-4e53-85e1-e3e6aaa5c5b7</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2025-09-02 08:19</t>
+          <t>2025-09-01 08:20</t>
         </is>
       </c>
       <c r="E190" s="1" t="n">
-        <v>45902.34652777778</v>
+        <v>45901.34722222222</v>
       </c>
       <c r="F190" t="b">
         <v>1</v>
@@ -11671,17 +11737,13 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Wednesday 5 November 2025 11:00am</t>
+          <t>Wednesday 17 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L190" s="1" t="n">
-        <v>45966.45833333334</v>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>£3.0 million</t>
-        </is>
-      </c>
+        <v>45917.45833333334</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
       <c r="N190" s="1" t="n">
         <v>45896</v>
       </c>
@@ -11694,21 +11756,21 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 4</t>
+          <t>Farming Innovation Programme: Small R&amp;D Partnership Projects Rd 4</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2277/overview/7386173a-c074-4617-b7d0-f54f3a458247</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2010/overview/bcd5cf06-313c-4197-ae47-0035f674717f</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025-09-04 08:18</t>
+          <t>2025-09-02 08:19</t>
         </is>
       </c>
       <c r="E191" s="1" t="n">
-        <v>45904.34583333333</v>
+        <v>45902.34652777778</v>
       </c>
       <c r="F191" t="b">
         <v>1</v>
@@ -11721,19 +11783,19 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
+          <t>Wednesday 5 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L191" s="1" t="n">
-        <v>45945.45833333334</v>
+        <v>45966.45833333334</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N191" s="1" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="192">
@@ -11744,21 +11806,21 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Innovate UK Innovation Loans Round 23</t>
+          <t>ADOPT Facilitator Support Grant: Round 4</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2275/overview/dec9b656-5f30-414e-a169-e11e17d04896</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2277/overview/7386173a-c074-4617-b7d0-f54f3a458247</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2025-09-05 08:18</t>
+          <t>2025-09-04 08:18</t>
         </is>
       </c>
       <c r="E192" s="1" t="n">
-        <v>45905.34583333333</v>
+        <v>45904.34583333333</v>
       </c>
       <c r="F192" t="b">
         <v>1</v>
@@ -11771,15 +11833,15 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Wednesday 22 October 2025 11:00am</t>
+          <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L192" s="1" t="n">
-        <v>45952.45833333334</v>
+        <v>45945.45833333334</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£2,500</t>
         </is>
       </c>
       <c r="N192" s="1" t="n">
@@ -11794,21 +11856,21 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>UK-Netherlands Co-Innovation and Testbeds Pilot for Quantum Tech</t>
+          <t>Innovate UK Innovation Loans Round 23</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2288/overview/d547d84e-d652-4ed6-9c85-b12ab8d785d2</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2275/overview/dec9b656-5f30-414e-a169-e11e17d04896</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025-09-12 08:17</t>
+          <t>2025-09-05 08:18</t>
         </is>
       </c>
       <c r="E193" s="1" t="n">
-        <v>45912.34513888889</v>
+        <v>45905.34583333333</v>
       </c>
       <c r="F193" t="b">
         <v>1</v>
@@ -11821,19 +11883,19 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Tuesday 28 October 2025 11:00am</t>
+          <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L193" s="1" t="n">
-        <v>45958.45833333334</v>
+        <v>45952.45833333334</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>£300,000</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N193" s="1" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="194">
@@ -11844,21 +11906,21 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Quantum Technologies for Transport - Phase 1</t>
+          <t>UK-Netherlands Co-Innovation and Testbeds Pilot for Quantum Tech</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2292/overview/cdea3182-7495-4cad-8435-f49882f08ec7</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2288/overview/d547d84e-d652-4ed6-9c85-b12ab8d785d2</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2025-09-16 08:19</t>
+          <t>2025-09-12 08:17</t>
         </is>
       </c>
       <c r="E194" s="1" t="n">
-        <v>45916.34652777778</v>
+        <v>45912.34513888889</v>
       </c>
       <c r="F194" t="b">
         <v>1</v>
@@ -11871,15 +11933,15 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
+          <t>Tuesday 28 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L194" s="1" t="n">
-        <v>45945.45833333334</v>
+        <v>45958.45833333334</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>£40,000</t>
+          <t>£300,000</t>
         </is>
       </c>
       <c r="N194" s="1" t="n">
@@ -11894,21 +11956,21 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DRIVE35 Scale-up Fund</t>
+          <t>Contracts for Innovation: Quantum Technologies for Transport - Phase 1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2279/overview/029bd996-9abd-42d9-8134-e2d34e3cfff5</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2292/overview/cdea3182-7495-4cad-8435-f49882f08ec7</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025-09-17 08:18</t>
+          <t>2025-09-16 08:19</t>
         </is>
       </c>
       <c r="E195" s="1" t="n">
-        <v>45917.34583333333</v>
+        <v>45916.34652777778</v>
       </c>
       <c r="F195" t="b">
         <v>1</v>
@@ -11921,17 +11983,19 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>There is no submission deadline</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr"/>
+          <t>Wednesday 15 October 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L195" s="1" t="n">
+        <v>45945.45833333334</v>
+      </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>£20.0 million</t>
+          <t>£40,000</t>
         </is>
       </c>
       <c r="N195" s="1" t="n">
-        <v>45917</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="196">
@@ -11942,21 +12006,21 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Commercialising Knowledge Assets Fund (CKAF) Winter</t>
+          <t>DRIVE35 Scale-up Fund</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2295/overview/cdce9dab-263c-444b-9e91-61f13046bd62</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2279/overview/029bd996-9abd-42d9-8134-e2d34e3cfff5</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2025-09-18 08:17</t>
+          <t>2025-09-17 08:18</t>
         </is>
       </c>
       <c r="E196" s="1" t="n">
-        <v>45918.34513888889</v>
+        <v>45917.34583333333</v>
       </c>
       <c r="F196" t="b">
         <v>1</v>
@@ -11969,15 +12033,13 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Thursday 4 December 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L196" s="1" t="n">
-        <v>45995.45833333334</v>
-      </c>
+          <t>There is no submission deadline</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr">
         <is>
-          <t>£250,000</t>
+          <t>£20.0 million</t>
         </is>
       </c>
       <c r="N196" s="1" t="n">
@@ -11992,21 +12054,21 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Resource efficiency for resilience and sustainability FS</t>
+          <t>Commercialising Knowledge Assets Fund (CKAF) Winter</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2293/overview/2efee934-8622-4686-bc02-a6ac7fc9e5a6</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2295/overview/cdce9dab-263c-444b-9e91-61f13046bd62</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2025-09-20 08:16</t>
+          <t>2025-09-18 08:17</t>
         </is>
       </c>
       <c r="E197" s="1" t="n">
-        <v>45920.34444444445</v>
+        <v>45918.34513888889</v>
       </c>
       <c r="F197" t="b">
         <v>1</v>
@@ -12019,15 +12081,15 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Monday 3 November 2025 11:00am</t>
+          <t>Thursday 4 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L197" s="1" t="n">
-        <v>45964.45833333334</v>
+        <v>45995.45833333334</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>£25,000</t>
+          <t>£250,000</t>
         </is>
       </c>
       <c r="N197" s="1" t="n">
@@ -12042,21 +12104,21 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C4</t>
+          <t>Resource efficiency for resilience and sustainability FS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2284/overview/aa6bd2b1-f6e1-4e96-bd4c-0557c10779c8</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2293/overview/2efee934-8622-4686-bc02-a6ac7fc9e5a6</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2025-09-23 08:18</t>
+          <t>2025-09-20 08:16</t>
         </is>
       </c>
       <c r="E198" s="1" t="n">
-        <v>45923.34583333333</v>
+        <v>45920.34444444445</v>
       </c>
       <c r="F198" t="b">
         <v>1</v>
@@ -12069,15 +12131,15 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Wednesday 22 October 2025 11:00am</t>
+          <t>Monday 3 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L198" s="1" t="n">
-        <v>45952.45833333334</v>
+        <v>45964.45833333334</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>£150,000</t>
+          <t>£25,000</t>
         </is>
       </c>
       <c r="N198" s="1" t="n">
@@ -12092,21 +12154,21 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Farming Innovation Programme: Feasibility Round 4</t>
+          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C4</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2006/overview/b67973b5-6d46-4a34-a864-bec1212e3fe0</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2284/overview/aa6bd2b1-f6e1-4e96-bd4c-0557c10779c8</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2025-09-29 08:20</t>
+          <t>2025-09-23 08:18</t>
         </is>
       </c>
       <c r="E199" s="1" t="n">
-        <v>45929.34722222222</v>
+        <v>45923.34583333333</v>
       </c>
       <c r="F199" t="b">
         <v>1</v>
@@ -12119,19 +12181,19 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Wednesday 3 December 2025 11:00am</t>
+          <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L199" s="1" t="n">
-        <v>45994.45833333334</v>
+        <v>45952.45833333334</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£150,000</t>
         </is>
       </c>
       <c r="N199" s="1" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="200">
@@ -12142,21 +12204,21 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Eureka GlobalStars Japan 2026</t>
+          <t>Farming Innovation Programme: Feasibility Round 4</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2276/overview/19635c62-dd91-41d8-a90e-547cdb5acbfa</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2006/overview/b67973b5-6d46-4a34-a864-bec1212e3fe0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2025-10-03 08:17</t>
+          <t>2025-09-29 08:20</t>
         </is>
       </c>
       <c r="E200" s="1" t="n">
-        <v>45933.34513888889</v>
+        <v>45929.34722222222</v>
       </c>
       <c r="F200" t="b">
         <v>1</v>
@@ -12169,19 +12231,19 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Wednesday 21 January 2026 11:00am</t>
+          <t>Wednesday 3 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L200" s="1" t="n">
-        <v>46043.45833333334</v>
+        <v>45994.45833333334</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>£600,000</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N200" s="1" t="n">
-        <v>45931</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="201">
@@ -12192,21 +12254,21 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>CAM Pathfinder: Feasibility studies 2</t>
+          <t>Eureka GlobalStars Japan 2026</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2307/overview/8eec43e7-96a5-49d1-97e1-3400321160f9</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2276/overview/19635c62-dd91-41d8-a90e-547cdb5acbfa</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2025-10-10 08:18</t>
+          <t>2025-10-03 08:17</t>
         </is>
       </c>
       <c r="E201" s="1" t="n">
-        <v>45940.34583333333</v>
+        <v>45933.34513888889</v>
       </c>
       <c r="F201" t="b">
         <v>1</v>
@@ -12219,19 +12281,19 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Wednesday 26 November 2025 11:00am</t>
+          <t>Wednesday 21 January 2026 11:00am</t>
         </is>
       </c>
       <c r="L201" s="1" t="n">
-        <v>45987.45833333334</v>
+        <v>46043.45833333334</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>£250,000</t>
+          <t>£600,000</t>
         </is>
       </c>
       <c r="N201" s="1" t="n">
-        <v>45938</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="202">
@@ -12242,21 +12304,21 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ATI Programme strategic batch EoI – October 2025</t>
+          <t>CAM Pathfinder: Feasibility studies 2</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2317/overview/c946fbde-725e-4f85-bb3f-3219576c4a01</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2307/overview/8eec43e7-96a5-49d1-97e1-3400321160f9</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2025-10-14 08:17</t>
+          <t>2025-10-10 08:18</t>
         </is>
       </c>
       <c r="E202" s="1" t="n">
-        <v>45944.34513888889</v>
+        <v>45940.34583333333</v>
       </c>
       <c r="F202" t="b">
         <v>1</v>
@@ -12269,13 +12331,17 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Wednesday 22 October 2025 11:00am</t>
+          <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L202" s="1" t="n">
-        <v>45952.45833333334</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>£250,000</t>
+        </is>
+      </c>
       <c r="N202" s="1" t="n">
         <v>45938</v>
       </c>
@@ -12288,21 +12354,21 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CAM Pathfinder: Enable</t>
+          <t>ATI Programme strategic batch EoI – October 2025</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2318/overview/39cd0e04-6f9c-40da-b0be-8eaae7f1603d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2317/overview/c946fbde-725e-4f85-bb3f-3219576c4a01</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2025-10-15 08:19</t>
+          <t>2025-10-14 08:17</t>
         </is>
       </c>
       <c r="E203" s="1" t="n">
-        <v>45945.34652777778</v>
+        <v>45944.34513888889</v>
       </c>
       <c r="F203" t="b">
         <v>1</v>
@@ -12315,19 +12381,15 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Wednesday 17 December 2025 11:00am</t>
+          <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L203" s="1" t="n">
-        <v>46008.45833333334</v>
-      </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>£4.0 million</t>
-        </is>
-      </c>
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
       <c r="N203" s="1" t="n">
-        <v>45945</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="204">
@@ -12338,12 +12400,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CAM Pathfinder: Demonstrate</t>
+          <t>CAM Pathfinder: Enable</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2315/overview/f02885bb-e043-4a60-8d0c-22242bd77fa9</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2318/overview/39cd0e04-6f9c-40da-b0be-8eaae7f1603d</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -12373,7 +12435,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>£2.0 million</t>
+          <t>£4.0 million</t>
         </is>
       </c>
       <c r="N204" s="1" t="n">
@@ -12388,21 +12450,21 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Launchpad: life and health sciences, Northern Ireland – Rd3 MFA</t>
+          <t>CAM Pathfinder: Demonstrate</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2305/overview/fe565f48-36a8-4d8b-8515-e89d750f259c</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2315/overview/f02885bb-e043-4a60-8d0c-22242bd77fa9</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2025-10-16 08:19</t>
+          <t>2025-10-15 08:19</t>
         </is>
       </c>
       <c r="E205" s="1" t="n">
-        <v>45946.34652777778</v>
+        <v>45945.34652777778</v>
       </c>
       <c r="F205" t="b">
         <v>1</v>
@@ -12415,15 +12477,15 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Wednesday 26 November 2025 11:00am</t>
+          <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L205" s="1" t="n">
-        <v>45987.45833333334</v>
+        <v>46008.45833333334</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£2.0 million</t>
         </is>
       </c>
       <c r="N205" s="1" t="n">
@@ -12438,21 +12500,21 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 5</t>
+          <t>Launchpad: life and health sciences, Northern Ireland – Rd3 MFA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2299/overview/0a26e49f-fa03-4096-aa8b-3eb39b68f20d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2305/overview/fe565f48-36a8-4d8b-8515-e89d750f259c</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2025-10-17 08:19</t>
+          <t>2025-10-16 08:19</t>
         </is>
       </c>
       <c r="E206" s="1" t="n">
-        <v>45947.34652777778</v>
+        <v>45946.34652777778</v>
       </c>
       <c r="F206" t="b">
         <v>1</v>
@@ -12473,7 +12535,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N206" s="1" t="n">
@@ -12488,21 +12550,21 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Battery Innovation Feasibility Studies Round 1</t>
+          <t>ADOPT Facilitator Support Grant: Round 5</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2313/overview/508ab35f-0e07-4e84-8e31-bbbcb619bc9e</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2299/overview/0a26e49f-fa03-4096-aa8b-3eb39b68f20d</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2025-10-18 08:16</t>
+          <t>2025-10-17 08:19</t>
         </is>
       </c>
       <c r="E207" s="1" t="n">
-        <v>45948.34444444445</v>
+        <v>45947.34652777778</v>
       </c>
       <c r="F207" t="b">
         <v>1</v>
@@ -12515,15 +12577,15 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Wednesday 17 December 2025 11:00am</t>
+          <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L207" s="1" t="n">
-        <v>46008.45833333334</v>
+        <v>45987.45833333334</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£2,500</t>
         </is>
       </c>
       <c r="N207" s="1" t="n">
@@ -12538,12 +12600,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Battery Innovation Concept Development Round 1</t>
+          <t>Battery Innovation Feasibility Studies Round 1</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2314/overview/4d1e65d7-b380-41b7-8dcf-b25cd26b9ab5</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2313/overview/508ab35f-0e07-4e84-8e31-bbbcb619bc9e</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -12573,7 +12635,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>£4.0 million</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N208" s="1" t="n">
@@ -12588,21 +12650,21 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>The Agentic AI Pioneers Prize</t>
+          <t>Battery Innovation Concept Development Round 1</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2316/overview/fa0eeab0-3021-4cbc-8975-5bd45a7d642a</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2314/overview/4d1e65d7-b380-41b7-8dcf-b25cd26b9ab5</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2025-10-21 08:20</t>
+          <t>2025-10-18 08:16</t>
         </is>
       </c>
       <c r="E209" s="1" t="n">
-        <v>45951.34722222222</v>
+        <v>45948.34444444445</v>
       </c>
       <c r="F209" t="b">
         <v>1</v>
@@ -12615,13 +12677,17 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Wednesday 19 November 2025 11:00am</t>
+          <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L209" s="1" t="n">
-        <v>45980.45833333334</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>£4.0 million</t>
+        </is>
+      </c>
       <c r="N209" s="1" t="n">
         <v>45945</v>
       </c>
@@ -12634,21 +12700,21 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MSI: SME resource and energy efficiency – industrial research</t>
+          <t>The Agentic AI Pioneers Prize</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2328/overview/79cb058a-71b3-459a-93c2-8c96ecf7f18a</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2316/overview/fa0eeab0-3021-4cbc-8975-5bd45a7d642a</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2025-10-22 08:21</t>
+          <t>2025-10-21 08:20</t>
         </is>
       </c>
       <c r="E210" s="1" t="n">
-        <v>45952.34791666667</v>
+        <v>45951.34722222222</v>
       </c>
       <c r="F210" t="b">
         <v>1</v>
@@ -12661,19 +12727,15 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Wednesday 10 December 2025 11:00am</t>
+          <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L210" s="1" t="n">
-        <v>46001.45833333334</v>
-      </c>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>£1.0 million</t>
-        </is>
-      </c>
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
       <c r="N210" s="1" t="n">
-        <v>45952</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="211">
@@ -12684,12 +12746,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MSI: SME resource and energy   efficiency – feasibility studies</t>
+          <t>MSI: SME resource and energy efficiency – industrial research</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2327/overview/bd7d1a37-69dc-4d09-8615-2bae4bcf3666</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2328/overview/79cb058a-71b3-459a-93c2-8c96ecf7f18a</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -12719,7 +12781,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>£150,000</t>
+          <t>£1.0 million</t>
         </is>
       </c>
       <c r="N211" s="1" t="n">
@@ -12734,21 +12796,21 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant Round 4</t>
+          <t>MSI: SME resource and energy   efficiency – feasibility studies</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2298/overview/71fd7055-502d-4f85-9127-749156a80fe6</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2327/overview/bd7d1a37-69dc-4d09-8615-2bae4bcf3666</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2025-10-23 08:19</t>
+          <t>2025-10-22 08:21</t>
         </is>
       </c>
       <c r="E212" s="1" t="n">
-        <v>45953.34652777778</v>
+        <v>45952.34791666667</v>
       </c>
       <c r="F212" t="b">
         <v>1</v>
@@ -12769,7 +12831,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£150,000</t>
         </is>
       </c>
       <c r="N212" s="1" t="n">
@@ -12784,21 +12846,21 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Innovate UK Innovation Loans Round 24</t>
+          <t>Full ADOPT Grant Round 4</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2322/overview/1b933876-5f58-4dec-85ab-68b8c2722211</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2298/overview/71fd7055-502d-4f85-9127-749156a80fe6</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2025-10-24 08:19</t>
+          <t>2025-10-23 08:19</t>
         </is>
       </c>
       <c r="E213" s="1" t="n">
-        <v>45954.34652777778</v>
+        <v>45953.34652777778</v>
       </c>
       <c r="F213" t="b">
         <v>1</v>
@@ -12811,15 +12873,15 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Wednesday 7 January 2026 11:00am</t>
+          <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L213" s="1" t="n">
-        <v>46029.45833333334</v>
+        <v>46001.45833333334</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N213" s="1" t="n">
@@ -12834,21 +12896,21 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 4</t>
+          <t>Innovate UK Innovation Loans Round 24</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2290/overview/8dd45f5c-3f38-4e38-b733-42b6cf601292</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2322/overview/1b933876-5f58-4dec-85ab-68b8c2722211</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2025-10-25 08:16</t>
+          <t>2025-10-24 08:19</t>
         </is>
       </c>
       <c r="E214" s="1" t="n">
-        <v>45955.34444444445</v>
+        <v>45954.34652777778</v>
       </c>
       <c r="F214" t="b">
         <v>1</v>
@@ -12861,15 +12923,15 @@
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Wednesday 26 November 2025 11:00am</t>
+          <t>Wednesday 7 January 2026 11:00am</t>
         </is>
       </c>
       <c r="L214" s="1" t="n">
-        <v>45987.45833333334</v>
+        <v>46029.45833333334</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>£8,500</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N214" s="1" t="n">
@@ -12884,21 +12946,21 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>National Materials Innovation Programme: Feasibility Studies</t>
+          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 4</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2326/overview/ca8aab61-a03b-431f-94a8-5c9b008495d5</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2290/overview/8dd45f5c-3f38-4e38-b733-42b6cf601292</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2025-10-31 08:18</t>
+          <t>2025-10-25 08:16</t>
         </is>
       </c>
       <c r="E215" s="1" t="n">
-        <v>45961.34583333333</v>
+        <v>45955.34444444445</v>
       </c>
       <c r="F215" t="b">
         <v>1</v>
@@ -12911,19 +12973,19 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Wednesday 17 December 2025 11:00am</t>
+          <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L215" s="1" t="n">
-        <v>46008.45833333334</v>
+        <v>45987.45833333334</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£8,500</t>
         </is>
       </c>
       <c r="N215" s="1" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="216">
@@ -12934,21 +12996,21 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>UK-Canada Quantum Communications and Networking Demonstrator</t>
+          <t>National Materials Innovation Programme: Feasibility Studies</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2335/overview/64e26f1b-8564-4539-b3ca-1b15ebf4f94a</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2326/overview/ca8aab61-a03b-431f-94a8-5c9b008495d5</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2025-11-04 08:20</t>
+          <t>2025-10-31 08:18</t>
         </is>
       </c>
       <c r="E216" s="1" t="n">
-        <v>45965.34722222222</v>
+        <v>45961.34583333333</v>
       </c>
       <c r="F216" t="b">
         <v>1</v>
@@ -12961,15 +13023,15 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Wednesday 26 November 2025 11:00am</t>
+          <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L216" s="1" t="n">
-        <v>45987.45833333334</v>
+        <v>46008.45833333334</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>£3.4 million</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N216" s="1" t="n">
@@ -12984,12 +13046,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Increasing EV charging capacity on the strategic road network</t>
+          <t>UK-Canada Quantum Communications and Networking Demonstrator</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2304/overview/9ea6670e-83fd-43f9-972f-e0eff8fe77a8</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2335/overview/64e26f1b-8564-4539-b3ca-1b15ebf4f94a</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -13011,15 +13073,15 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Wednesday 25 March 2026 11:00am</t>
+          <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L217" s="1" t="n">
-        <v>46106.45833333334</v>
+        <v>45987.45833333334</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>£3.0 million</t>
+          <t>£3.4 million</t>
         </is>
       </c>
       <c r="N217" s="1" t="n">
@@ -13034,21 +13096,21 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Biomedical Catalyst 2025: Industry led R&amp;D small projects</t>
+          <t>Increasing EV charging capacity on the strategic road network</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2333/overview/f5431c75-e2e1-48f4-bc8e-62d52121cb6f</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2304/overview/9ea6670e-83fd-43f9-972f-e0eff8fe77a8</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2025-11-05 08:19</t>
+          <t>2025-11-04 08:20</t>
         </is>
       </c>
       <c r="E218" s="1" t="n">
-        <v>45966.34652777778</v>
+        <v>45965.34722222222</v>
       </c>
       <c r="F218" t="b">
         <v>1</v>
@@ -13061,19 +13123,19 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Wednesday 10 December 2025 11:00am</t>
+          <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L218" s="1" t="n">
-        <v>46001.45833333334</v>
+        <v>46106.45833333334</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>£1.0 million</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N218" s="1" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="219">
@@ -13084,12 +13146,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Biomedical Catalyst 2025: Industry led R&amp;D large projects</t>
+          <t>Biomedical Catalyst 2025: Industry led R&amp;D small projects</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2332/overview/bf6bd8c3-e550-478d-b374-a3cb0fb4d3d3</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2333/overview/f5431c75-e2e1-48f4-bc8e-62d52121cb6f</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -13119,7 +13181,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>£4.0 million</t>
+          <t>£1.0 million</t>
         </is>
       </c>
       <c r="N219" s="1" t="n">
@@ -13134,12 +13196,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ATI Programme strategic batch EoI – November 2025</t>
+          <t>Biomedical Catalyst 2025: Industry led R&amp;D large projects</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2334/overview/4af06b80-2953-4cb3-8cc0-987ec5a2f322</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2332/overview/bf6bd8c3-e550-478d-b374-a3cb0fb4d3d3</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -13161,13 +13223,17 @@
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Wednesday 19 November 2025 11:00am</t>
+          <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L220" s="1" t="n">
-        <v>45980.45833333334</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>£4.0 million</t>
+        </is>
+      </c>
       <c r="N220" s="1" t="n">
         <v>45966</v>
       </c>
@@ -13180,21 +13246,21 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DRIVE35 Scale-up: Feasibility Studies 2</t>
+          <t>ATI Programme strategic batch EoI – November 2025</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2341/overview/4b0efce9-75b8-4e84-97c0-fc6277396586</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2334/overview/4af06b80-2953-4cb3-8cc0-987ec5a2f322</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2025-11-11 08:19</t>
+          <t>2025-11-05 08:19</t>
         </is>
       </c>
       <c r="E221" s="1" t="n">
-        <v>45972.34652777778</v>
+        <v>45966.34652777778</v>
       </c>
       <c r="F221" t="b">
         <v>1</v>
@@ -13207,17 +13273,13 @@
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Wednesday 17 December 2025 11:00am</t>
+          <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L221" s="1" t="n">
-        <v>46008.45833333334</v>
-      </c>
-      <c r="M221" t="inlineStr">
-        <is>
-          <t>£750,000</t>
-        </is>
-      </c>
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
       <c r="N221" s="1" t="n">
         <v>45966</v>
       </c>
@@ -13230,21 +13292,21 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Women in Innovation Awards 2025/26</t>
+          <t>DRIVE35 Scale-up: Feasibility Studies 2</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2337/overview/3750b1cd-2080-4a1c-82c0-003fbaafdd2d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2341/overview/4b0efce9-75b8-4e84-97c0-fc6277396586</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2025-11-27 13:23</t>
+          <t>2025-11-11 08:19</t>
         </is>
       </c>
       <c r="E222" s="1" t="n">
-        <v>45988.55763888889</v>
+        <v>45972.34652777778</v>
       </c>
       <c r="F222" t="b">
         <v>1</v>
@@ -13257,19 +13319,19 @@
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Wednesday 4 February 2026 11:00am</t>
+          <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L222" s="1" t="n">
-        <v>46057.45833333334</v>
+        <v>46008.45833333334</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>£75,000</t>
+          <t>£750,000</t>
         </is>
       </c>
       <c r="N222" s="1" t="n">
-        <v>45987</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="223">
@@ -13280,21 +13342,21 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 5</t>
+          <t>Women in Innovation Awards 2025/26</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2354/overview/c7008321-f651-45c5-a409-c3215231fbb4</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2337/overview/3750b1cd-2080-4a1c-82c0-003fbaafdd2d</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2025-12-02 08:22</t>
+          <t>2025-11-27 13:23</t>
         </is>
       </c>
       <c r="E223" s="1" t="n">
-        <v>45993.34861111111</v>
+        <v>45988.55763888889</v>
       </c>
       <c r="F223" t="b">
         <v>1</v>
@@ -13315,7 +13377,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>£8,500</t>
+          <t>£75,000</t>
         </is>
       </c>
       <c r="N223" s="1" t="n">
@@ -13330,21 +13392,21 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Innovate UK Growth Catalyst – Investor Partnerships Round 2</t>
+          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 5</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2360/overview/37d8f6e1-5600-4e9e-bbfc-11bc320f8808</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2354/overview/c7008321-f651-45c5-a409-c3215231fbb4</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2025-12-11 08:22</t>
+          <t>2025-12-02 08:22</t>
         </is>
       </c>
       <c r="E224" s="1" t="n">
-        <v>46002.34861111111</v>
+        <v>45993.34861111111</v>
       </c>
       <c r="F224" t="b">
         <v>1</v>
@@ -13357,19 +13419,19 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Tuesday 3 February 2026 11:00am</t>
+          <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L224" s="1" t="n">
-        <v>46056.45833333334</v>
+        <v>46057.45833333334</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>£2.0 million</t>
+          <t>£8,500</t>
         </is>
       </c>
       <c r="N224" s="1" t="n">
-        <v>46001</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="225">
@@ -13380,21 +13442,21 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant: Round 5</t>
+          <t>Innovate UK Growth Catalyst – Investor Partnerships Round 2</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2358/overview/f93f32c2-dd04-474d-bc35-a8af1ecac1a9</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2360/overview/37d8f6e1-5600-4e9e-bbfc-11bc320f8808</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2025-12-12 08:22</t>
+          <t>2025-12-11 08:22</t>
         </is>
       </c>
       <c r="E225" s="1" t="n">
-        <v>46003.34861111111</v>
+        <v>46002.34861111111</v>
       </c>
       <c r="F225" t="b">
         <v>1</v>
@@ -13407,15 +13469,15 @@
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Wednesday 4 February 2026 11:00am</t>
+          <t>Tuesday 3 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L225" s="1" t="n">
-        <v>46057.45833333334</v>
+        <v>46056.45833333334</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£2.0 million</t>
         </is>
       </c>
       <c r="N225" s="1" t="n">
@@ -13430,21 +13492,21 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 6</t>
+          <t>Full ADOPT Grant: Round 5</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2371/overview/471bfe91-9f9c-4086-a28a-15296f1957e2</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2358/overview/f93f32c2-dd04-474d-bc35-a8af1ecac1a9</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2025-12-18 08:21</t>
+          <t>2025-12-12 08:22</t>
         </is>
       </c>
       <c r="E226" s="1" t="n">
-        <v>46009.34791666667</v>
+        <v>46003.34861111111</v>
       </c>
       <c r="F226" t="b">
         <v>1</v>
@@ -13457,19 +13519,19 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Wednesday 25 February 2026 11:00am</t>
+          <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L226" s="1" t="n">
-        <v>46078.45833333334</v>
+        <v>46057.45833333334</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N226" s="1" t="n">
-        <v>46008</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="227">
@@ -13480,12 +13542,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Commercialising Knowledge Assets Fund (CKAF) Spring</t>
+          <t>ADOPT Facilitator Support Grant: Round 6</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2369/overview/abf7d399-81b9-4f33-b592-51825a288c37</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2371/overview/471bfe91-9f9c-4086-a28a-15296f1957e2</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -13507,15 +13569,15 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Thursday 7 May 2026 11:00am</t>
+          <t>Wednesday 25 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L227" s="1" t="n">
-        <v>46149.45833333334</v>
+        <v>46078.45833333334</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>£250,000</t>
+          <t>£2,500</t>
         </is>
       </c>
       <c r="N227" s="1" t="n">
@@ -13530,21 +13592,21 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Energy catalyst round 11 – mid stage</t>
+          <t>Commercialising Knowledge Assets Fund (CKAF) Spring</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2363/overview/9f759af1-3732-4d15-995d-053e28025d22</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2369/overview/abf7d399-81b9-4f33-b592-51825a288c37</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2026-01-06 08:22</t>
+          <t>2025-12-18 08:21</t>
         </is>
       </c>
       <c r="E228" s="1" t="n">
-        <v>46028.34861111111</v>
+        <v>46009.34791666667</v>
       </c>
       <c r="F228" t="b">
         <v>1</v>
@@ -13557,19 +13619,19 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Wednesday 25 March 2026 11:00am</t>
+          <t>Thursday 7 May 2026 11:00am</t>
         </is>
       </c>
       <c r="L228" s="1" t="n">
-        <v>46106.45833333334</v>
+        <v>46149.45833333334</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£250,000</t>
         </is>
       </c>
       <c r="N228" s="1" t="n">
-        <v>46022</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="229">
@@ -13580,12 +13642,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Energy catalyst round 11 – late stage</t>
+          <t>Energy catalyst round 11 – mid stage</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2364/overview/b9d4dedf-d22a-41d1-9ca2-6c5a279519be</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2363/overview/9f759af1-3732-4d15-995d-053e28025d22</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -13615,7 +13677,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N229" s="1" t="n">
@@ -13630,12 +13692,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Energy catalyst round 11 – early stage</t>
+          <t>Energy catalyst round 11 – late stage</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2362/overview/640b2f4e-8571-4aef-9e2a-67e35db3db77</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2364/overview/b9d4dedf-d22a-41d1-9ca2-6c5a279519be</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -13665,7 +13727,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>£300,000</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N230" s="1" t="n">
@@ -13680,12 +13742,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DRIVE35 Innovation Fund: Demonstrate 2</t>
+          <t>Energy catalyst round 11 – early stage</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2351/overview/349c38f5-5ed2-4cf4-a324-bda2d6cd1e67</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2362/overview/640b2f4e-8571-4aef-9e2a-67e35db3db77</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -13707,15 +13769,15 @@
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Wednesday 11 March 2026 11:00am</t>
+          <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L231" s="1" t="n">
-        <v>46092.45833333334</v>
+        <v>46106.45833333334</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£300,000</t>
         </is>
       </c>
       <c r="N231" s="1" t="n">
@@ -13730,12 +13792,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>DRIVE35 Innovation Fund: Collaborate 2</t>
+          <t>DRIVE35 Innovation Fund: Demonstrate 2</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2350/overview/dbd41be3-14ea-4c83-8774-eb28a8703d57</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2351/overview/349c38f5-5ed2-4cf4-a324-bda2d6cd1e67</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -13757,15 +13819,15 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Wednesday 18 March 2026 11:00am</t>
+          <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L232" s="1" t="n">
-        <v>46099.45833333334</v>
+        <v>46092.45833333334</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>£25.0 million</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N232" s="1" t="n">
@@ -13780,21 +13842,21 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Innovate UK Innovation Loans Round 25</t>
+          <t>DRIVE35 Innovation Fund: Collaborate 2</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2373/overview/609dc5dd-d3e8-4f51-af3a-3eb1b3314710</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2350/overview/dbd41be3-14ea-4c83-8774-eb28a8703d57</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2026-01-08 08:22</t>
+          <t>2026-01-06 08:22</t>
         </is>
       </c>
       <c r="E233" s="1" t="n">
-        <v>46030.34861111111</v>
+        <v>46028.34861111111</v>
       </c>
       <c r="F233" t="b">
         <v>1</v>
@@ -13807,19 +13869,19 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Wednesday 4 March 2026 11:00am</t>
+          <t>Wednesday 18 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L233" s="1" t="n">
-        <v>46085.45833333334</v>
+        <v>46099.45833333334</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£25.0 million</t>
         </is>
       </c>
       <c r="N233" s="1" t="n">
-        <v>46029</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="234">
@@ -13830,21 +13892,21 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Cyber Security Academic Startup Accelerator Programme Y10 Phase 1</t>
+          <t>Innovate UK Innovation Loans Round 25</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2376/overview/1b9b9265-ca4b-4f8c-a0c2-577cb8713642</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2373/overview/609dc5dd-d3e8-4f51-af3a-3eb1b3314710</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2026-01-15 08:23</t>
+          <t>2026-01-08 08:22</t>
         </is>
       </c>
       <c r="E234" s="1" t="n">
-        <v>46037.34930555556</v>
+        <v>46030.34861111111</v>
       </c>
       <c r="F234" t="b">
         <v>1</v>
@@ -13857,19 +13919,19 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Wednesday 11 February 2026 11:00am</t>
+          <t>Wednesday 4 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L234" s="1" t="n">
-        <v>46064.45833333334</v>
+        <v>46085.45833333334</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>£32,000</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N234" s="1" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="235">
@@ -13880,21 +13942,21 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C5</t>
+          <t>Cyber Security Academic Startup Accelerator Programme Y10 Phase 1</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2346/overview/e172ee7c-3050-4d47-bf11-235cfe76c1e1</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2376/overview/1b9b9265-ca4b-4f8c-a0c2-577cb8713642</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2026-01-20 08:24</t>
+          <t>2026-01-15 08:23</t>
         </is>
       </c>
       <c r="E235" s="1" t="n">
-        <v>46042.35</v>
+        <v>46037.34930555556</v>
       </c>
       <c r="F235" t="b">
         <v>1</v>
@@ -13907,15 +13969,15 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Wednesday 25 February 2026 11:00am</t>
+          <t>Wednesday 11 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L235" s="1" t="n">
-        <v>46078.45833333334</v>
+        <v>46064.45833333334</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>£150,000</t>
+          <t>£32,000</t>
         </is>
       </c>
       <c r="N235" s="1" t="n">
@@ -13930,21 +13992,21 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Advanced manufacturing supply chain innovation FS</t>
+          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C5</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2384/overview/2ad8ce21-d3f6-48bf-b55a-5af2a892a1e0</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2346/overview/e172ee7c-3050-4d47-bf11-235cfe76c1e1</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2026-01-26 12:10</t>
+          <t>2026-01-20 08:24</t>
         </is>
       </c>
       <c r="E236" s="1" t="n">
-        <v>46048.50694444445</v>
+        <v>46042.35</v>
       </c>
       <c r="F236" t="b">
         <v>1</v>
@@ -13957,19 +14019,19 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Wednesday 11 March 2026 11:00am</t>
+          <t>Wednesday 25 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L236" s="1" t="n">
-        <v>46092.45833333334</v>
+        <v>46078.45833333334</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£150,000</t>
         </is>
       </c>
       <c r="N236" s="1" t="n">
-        <v>46043</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="237">
@@ -13980,21 +14042,21 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
+          <t>Advanced manufacturing supply chain innovation FS</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2378/overview/ae120ce2-7b72-4cf2-8dde-f78b02d5996d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2384/overview/2ad8ce21-d3f6-48bf-b55a-5af2a892a1e0</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2026-01-28 10:24</t>
+          <t>2026-01-26 12:10</t>
         </is>
       </c>
       <c r="E237" s="1" t="n">
-        <v>46050.43333333333</v>
+        <v>46048.50694444445</v>
       </c>
       <c r="F237" t="b">
         <v>1</v>
@@ -14007,19 +14069,19 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Wednesday 18 March 2026 11:00am</t>
+          <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L237" s="1" t="n">
-        <v>46099.45833333334</v>
+        <v>46092.45833333334</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>£225,000</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N237" s="1" t="n">
-        <v>46050</v>
+        <v>46043</v>
       </c>
     </row>
     <row r="238">
@@ -14030,12 +14092,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TechLocal AI Professional Degree and Traineeship Accelerator</t>
+          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2375/overview/6431359e-eb5c-4f76-b49d-299948107fbd</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2378/overview/ae120ce2-7b72-4cf2-8dde-f78b02d5996d</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -14065,7 +14127,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>£300,000</t>
+          <t>£225,000</t>
         </is>
       </c>
       <c r="N238" s="1" t="n">
@@ -14080,21 +14142,21 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Robotics Adoption Programme skills development</t>
+          <t>TechLocal AI Professional Degree and Traineeship Accelerator</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2387/overview/daca31c2-8395-4bc2-a5da-55eb1e432fa4</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2375/overview/6431359e-eb5c-4f76-b49d-299948107fbd</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2026-02-02 10:39</t>
+          <t>2026-01-28 10:24</t>
         </is>
       </c>
       <c r="E239" s="1" t="n">
-        <v>46055.44375</v>
+        <v>46050.43333333333</v>
       </c>
       <c r="F239" t="b">
         <v>1</v>
@@ -14107,15 +14169,15 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Wednesday 25 March 2026 11:00am</t>
+          <t>Wednesday 18 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L239" s="1" t="n">
-        <v>46106.45833333334</v>
+        <v>46099.45833333334</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£300,000</t>
         </is>
       </c>
       <c r="N239" s="1" t="n">
@@ -14130,21 +14192,21 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Knowledge Transfer Partnership (KTP): 2026 – 2027 Round 1</t>
+          <t>Robotics Adoption Programme skills development</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2380/overview/3e170dd3-4458-4c7e-a096-e0ea50b88040</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2387/overview/daca31c2-8395-4bc2-a5da-55eb1e432fa4</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2026-02-03 10:35</t>
+          <t>2026-02-02 10:39</t>
         </is>
       </c>
       <c r="E240" s="1" t="n">
-        <v>46056.44097222222</v>
+        <v>46055.44375</v>
       </c>
       <c r="F240" t="b">
         <v>1</v>
@@ -14157,15 +14219,15 @@
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Wednesday 1 April 2026 11:00am</t>
+          <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L240" s="1" t="n">
-        <v>46113.45833333334</v>
+        <v>46106.45833333334</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>£8,500</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N240" s="1" t="n">
@@ -14180,12 +14242,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Biomedical Catalyst Accelerator Provider Pool EoI: late stage</t>
+          <t>Knowledge Transfer Partnership (KTP): 2026 – 2027 Round 1</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2389/overview/a7f7d874-8b6b-45d6-b1e1-1e88e11a1ea5</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2380/overview/3e170dd3-4458-4c7e-a096-e0ea50b88040</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -14207,13 +14269,17 @@
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Wednesday 4 March 2026 11:00am</t>
+          <t>Wednesday 1 April 2026 11:00am</t>
         </is>
       </c>
       <c r="L241" s="1" t="n">
-        <v>46085.45833333334</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>46113.45833333334</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>£8,500</t>
+        </is>
+      </c>
       <c r="N241" s="1" t="n">
         <v>46050</v>
       </c>
@@ -14226,12 +14292,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Biomedical Catalyst Accelerator Provider Pool EoI: early stage</t>
+          <t>Biomedical Catalyst Accelerator Provider Pool EoI: late stage</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2388/overview/08b8ab63-085d-4d79-ae83-e8c1698cb327</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2389/overview/a7f7d874-8b6b-45d6-b1e1-1e88e11a1ea5</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -14272,21 +14338,21 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant: Round 6</t>
+          <t>Biomedical Catalyst Accelerator Provider Pool EoI: early stage</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2385/overview/2343c344-807d-41a1-9551-05ac5420ba11</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2388/overview/08b8ab63-085d-4d79-ae83-e8c1698cb327</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2026-02-09 10:53</t>
+          <t>2026-02-03 10:35</t>
         </is>
       </c>
       <c r="E243" s="1" t="n">
-        <v>46062.45347222222</v>
+        <v>46056.44097222222</v>
       </c>
       <c r="F243" t="b">
         <v>1</v>
@@ -14299,19 +14365,15 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Wednesday 8 April 2026 11:00am</t>
+          <t>Wednesday 4 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L243" s="1" t="n">
-        <v>46120.45833333334</v>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>£100,000</t>
-        </is>
-      </c>
+        <v>46085.45833333334</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
       <c r="N243" s="1" t="n">
-        <v>46057</v>
+        <v>46050</v>
       </c>
     </row>
     <row r="244">
@@ -14322,21 +14384,21 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Zero Emission Flight Demonstrator Round 1</t>
+          <t>Full ADOPT Grant: Round 6</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2397/overview/752074ec-5f01-46d8-863f-596300a11651</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2385/overview/2343c344-807d-41a1-9551-05ac5420ba11</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2026-02-12 10:40</t>
+          <t>2026-02-09 10:53</t>
         </is>
       </c>
       <c r="E244" s="1" t="n">
-        <v>46065.44444444445</v>
+        <v>46062.45347222222</v>
       </c>
       <c r="F244" t="b">
         <v>1</v>
@@ -14349,19 +14411,19 @@
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Wednesday 1 April 2026 11:00am</t>
+          <t>Wednesday 8 April 2026 11:00am</t>
         </is>
       </c>
       <c r="L244" s="1" t="n">
-        <v>46113.45833333334</v>
+        <v>46120.45833333334</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N244" s="1" t="n">
-        <v>46064</v>
+        <v>46057</v>
       </c>
     </row>
     <row r="245">
@@ -14372,12 +14434,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
+          <t>Zero Emission Flight Demonstrator Round 1</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2395/overview/3d49fbc4-6e09-4dd8-9ac8-8e5f88facd8d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2397/overview/752074ec-5f01-46d8-863f-596300a11651</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -14399,15 +14461,15 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Wednesday 6 May 2026 11:00am</t>
+          <t>Wednesday 1 April 2026 11:00am</t>
         </is>
       </c>
       <c r="L245" s="1" t="n">
-        <v>46148.45833333334</v>
+        <v>46113.45833333334</v>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N245" s="1" t="n">
@@ -14422,12 +14484,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
+          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2394/overview/33b56af8-353f-46ac-bb66-a0928731c0fc</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2395/overview/3d49fbc4-6e09-4dd8-9ac8-8e5f88facd8d</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -14457,7 +14519,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>£10.0 million</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N246" s="1" t="n">
@@ -14472,21 +14534,21 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
+          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2392/overview/b8b93732-6326-4aed-9af3-334e4cc5ecc0</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2394/overview/33b56af8-353f-46ac-bb66-a0928731c0fc</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2026-02-13 10:35</t>
+          <t>2026-02-12 10:40</t>
         </is>
       </c>
       <c r="E247" s="1" t="n">
-        <v>46066.44097222222</v>
+        <v>46065.44444444445</v>
       </c>
       <c r="F247" t="b">
         <v>1</v>
@@ -14499,18 +14561,68 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
+          <t>Wednesday 6 May 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L247" s="1" t="n">
+        <v>46148.45833333334</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>£10.0 million</t>
+        </is>
+      </c>
+      <c r="N247" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2392/overview/b8b93732-6326-4aed-9af3-334e4cc5ecc0</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2026-02-13 10:35</t>
+        </is>
+      </c>
+      <c r="E248" s="1" t="n">
+        <v>46066.44097222222</v>
+      </c>
+      <c r="F248" t="b">
+        <v>1</v>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="b">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
           <t>Wednesday 15 April 2026 11:00am</t>
         </is>
       </c>
-      <c r="L247" s="1" t="n">
+      <c r="L248" s="1" t="n">
         <v>46127.45833333334</v>
       </c>
-      <c r="M247" t="inlineStr">
+      <c r="M248" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="N247" s="1" t="n">
+      <c r="N248" s="1" t="n">
         <v>46064</v>
       </c>
     </row>
@@ -14557,10 +14669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
@@ -14583,10 +14695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C4" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/InnovateUK_Funding_Opportunities_Latest.xlsx
+++ b/outputs/InnovateUK_Funding_Opportunities_Latest.xlsx
@@ -1262,7 +1262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1340,6 +1340,62 @@
         <is>
           <t>Week commencing (Wed)</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Southwest Wales Net Zero Industry Launchpad Round 2 - Call for challenge holders</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/southwest-wales-net-zero-industry-launchpad-round-2-call-for-challenge-holders/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-02-18 10:32</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>46071.43888888889</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>46071</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>13/03/2026                              00:00</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>46094</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>£25,000</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>46071</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,189 +1441,189 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46064</v>
+        <v>46071</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46057</v>
+        <v>46064</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46043</v>
+        <v>46050</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46036</v>
+        <v>46043</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46022</v>
+        <v>46029</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46015</v>
+        <v>46022</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46001</v>
+        <v>46008</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45987</v>
+        <v>45994</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45973</v>
+        <v>45980</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1581,91 +1637,91 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45959</v>
+        <v>45966</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45952</v>
+        <v>45959</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45945</v>
+        <v>45952</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45938</v>
+        <v>45945</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45931</v>
+        <v>45938</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1679,35 +1735,35 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -1721,169 +1777,183 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45889</v>
+        <v>45896</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45882</v>
+        <v>45889</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45875</v>
+        <v>45882</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45868</v>
+        <v>45875</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45861</v>
+        <v>45868</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45847</v>
+        <v>45854</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45840</v>
+        <v>45847</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>25</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1898,7 +1968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N250"/>
+  <dimension ref="A1:N251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9253,26 +9323,26 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Innovate Funding Service</t>
+          <t>Innovate UK Business Connect</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Future Leaders Fellowships: Round 10, business and non-academic</t>
+          <t>Southwest Wales Net Zero Industry Launchpad Round 2 - Call for challenge holders</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2058/overview/0f904547-f415-4fb9-94a7-0701c38a2ba1</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/southwest-wales-net-zero-industry-launchpad-round-2-call-for-challenge-holders/</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2025-06-14 08:41</t>
+          <t>2026-02-18 10:32</t>
         </is>
       </c>
       <c r="E147" s="1" t="n">
-        <v>45822.36180555556</v>
+        <v>46071.43888888889</v>
       </c>
       <c r="F147" t="b">
         <v>1</v>
@@ -9281,23 +9351,29 @@
       <c r="H147" t="b">
         <v>0</v>
       </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="J147" s="1" t="n">
+        <v>46071</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Wednesday 5 November 2025 11:00am</t>
+          <t>13/03/2026                              00:00</t>
         </is>
       </c>
       <c r="L147" s="1" t="n">
-        <v>45966.45833333334</v>
+        <v>46094</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>£3.0 million</t>
+          <t>£25,000</t>
         </is>
       </c>
       <c r="N147" s="1" t="n">
-        <v>45819</v>
+        <v>46071</v>
       </c>
     </row>
     <row r="148">
@@ -9308,12 +9384,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 2</t>
+          <t>Future Leaders Fellowships: Round 10, business and non-academic</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2223/overview/4e423e05-3228-45e3-9cfe-0b39d1227307</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2058/overview/0f904547-f415-4fb9-94a7-0701c38a2ba1</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -9335,15 +9411,15 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Thursday 24 July 2025 11:00am</t>
+          <t>Wednesday 5 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L148" s="1" t="n">
-        <v>45862.45833333334</v>
+        <v>45966.45833333334</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N148" s="1" t="n">
@@ -9358,12 +9434,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MSI Improving energy or resource efficiency in manufacturing FS</t>
+          <t>ADOPT Facilitator Support Grant: Round 2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2225/overview/c43ef163-3872-4178-b80d-88c406691610</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2223/overview/4e423e05-3228-45e3-9cfe-0b39d1227307</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -9385,15 +9461,15 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
+          <t>Thursday 24 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L149" s="1" t="n">
-        <v>45840.45833333334</v>
+        <v>45862.45833333334</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£2,500</t>
         </is>
       </c>
       <c r="N149" s="1" t="n">
@@ -9408,12 +9484,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>New Innovators in Marine and Maritime, Great South West</t>
+          <t>MSI Improving energy or resource efficiency in manufacturing FS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2215/overview/67b86d6c-bab9-4a01-aacc-3da2e57edc99</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2225/overview/c43ef163-3872-4178-b80d-88c406691610</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -9443,7 +9519,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>£50,000</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N150" s="1" t="n">
@@ -9458,12 +9534,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Commercialising Knowledge Assets Fund (CKAF) Autumn</t>
+          <t>New Innovators in Marine and Maritime, Great South West</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2217/overview/c555f64e-5485-4e49-89b8-32d61fac4ff0</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2215/overview/67b86d6c-bab9-4a01-aacc-3da2e57edc99</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -9485,15 +9561,15 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Thursday 4 September 2025 11:00am</t>
+          <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L151" s="1" t="n">
-        <v>45904.45833333334</v>
+        <v>45840.45833333334</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>£250,000</t>
+          <t>£50,000</t>
         </is>
       </c>
       <c r="N151" s="1" t="n">
@@ -9508,12 +9584,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ATI Programme strategic batch: EoI – June 2025</t>
+          <t>Commercialising Knowledge Assets Fund (CKAF) Autumn</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2218/overview/a45dcc8a-b621-4a79-9e4d-046e19b6b1e9</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2217/overview/c555f64e-5485-4e49-89b8-32d61fac4ff0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -9535,13 +9611,17 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Wednesday 18 June 2025 11:00am</t>
+          <t>Thursday 4 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L152" s="1" t="n">
-        <v>45826.45833333334</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>45904.45833333334</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>£250,000</t>
+        </is>
+      </c>
       <c r="N152" s="1" t="n">
         <v>45819</v>
       </c>
@@ -9554,12 +9634,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Defra Farming Innovation Investor Partnership</t>
+          <t>ATI Programme strategic batch: EoI – June 2025</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2207/overview/05e5263b-75a1-49a0-87f0-261541af0840</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2218/overview/a45dcc8a-b621-4a79-9e4d-046e19b6b1e9</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -9581,17 +9661,13 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
+          <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L153" s="1" t="n">
-        <v>45840.45833333334</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>£3.0 million</t>
-        </is>
-      </c>
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
       <c r="N153" s="1" t="n">
         <v>45819</v>
       </c>
@@ -9604,12 +9680,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C3</t>
+          <t>Defra Farming Innovation Investor Partnership</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2204/overview/9da241b9-1fd8-49fb-b8d0-4a81a637b3b5</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2207/overview/05e5263b-75a1-49a0-87f0-261541af0840</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -9631,15 +9707,15 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
+          <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L154" s="1" t="n">
-        <v>45833.45833333334</v>
+        <v>45840.45833333334</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>£150,000</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N154" s="1" t="n">
@@ -9654,12 +9730,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ofgem Strategic Innovation Fund Round 4 Discovery C3</t>
+          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2200/overview/0f0721c8-5a37-4046-8e4f-7649194e8adc</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2204/overview/9da241b9-1fd8-49fb-b8d0-4a81a637b3b5</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -9704,12 +9780,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Scaling community initiatives in diet and exercise</t>
+          <t>Ofgem Strategic Innovation Fund Round 4 Discovery C3</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2191/overview/6a097cf8-8f81-495d-b56f-3f240cfde64c</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2200/overview/0f0721c8-5a37-4046-8e4f-7649194e8adc</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -9731,15 +9807,15 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Wednesday 18 June 2025 11:00am</t>
+          <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L156" s="1" t="n">
-        <v>45826.45833333334</v>
+        <v>45833.45833333334</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>£250,000</t>
+          <t>£150,000</t>
         </is>
       </c>
       <c r="N156" s="1" t="n">
@@ -9754,12 +9830,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Quantum Sensors and PNT Missions Primer</t>
+          <t>Contracts for Innovation: Scaling community initiatives in diet and exercise</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2209/overview/28f8801b-a8b3-48c8-8c81-64d75341b81d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2191/overview/6a097cf8-8f81-495d-b56f-3f240cfde64c</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -9781,15 +9857,15 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
+          <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L157" s="1" t="n">
-        <v>45840.45833333334</v>
+        <v>45826.45833333334</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£250,000</t>
         </is>
       </c>
       <c r="N157" s="1" t="n">
@@ -9804,12 +9880,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Net Zero Living Tech Trials, phase 3</t>
+          <t>Contracts for Innovation: Quantum Sensors and PNT Missions Primer</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2189/overview/a59ac38e-662b-49a5-b7f9-a44c2cc38c61</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2209/overview/28f8801b-a8b3-48c8-8c81-64d75341b81d</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -9831,15 +9907,15 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
+          <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L158" s="1" t="n">
-        <v>45833.45833333334</v>
+        <v>45840.45833333334</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N158" s="1" t="n">
@@ -9854,12 +9930,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Clean Air, Phase 3</t>
+          <t>Contracts for Innovation: Net Zero Living Tech Trials, phase 3</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2181/overview/02aad9d2-c984-4bd5-a3f6-80f25ec62870</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2189/overview/a59ac38e-662b-49a5-b7f9-a44c2cc38c61</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -9904,12 +9980,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: DSbD Advancing CHERI Tools and software</t>
+          <t>Contracts for Innovation: Clean Air, Phase 3</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2194/overview/91c68630-20eb-4247-8296-ae1737637756</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2181/overview/02aad9d2-c984-4bd5-a3f6-80f25ec62870</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -9931,15 +10007,15 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Wednesday 18 June 2025 11:00am</t>
+          <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L160" s="1" t="n">
-        <v>45826.45833333334</v>
+        <v>45833.45833333334</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>£3.0 million</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N160" s="1" t="n">
@@ -9954,12 +10030,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: DSbD Advancing CHERI RISC-V Devices</t>
+          <t>Contracts for Innovation: DSbD Advancing CHERI Tools and software</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2198/overview/b2e2fd41-d372-4e33-a6df-8bfefb8de0f9</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2194/overview/91c68630-20eb-4247-8296-ae1737637756</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -9989,7 +10065,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N161" s="1" t="n">
@@ -10004,12 +10080,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Canada-UK Semiconductors</t>
+          <t>Contracts for Innovation: DSbD Advancing CHERI RISC-V Devices</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2192/overview/3906cbd5-fec2-4c1f-897d-ccab071708b3</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2198/overview/b2e2fd41-d372-4e33-a6df-8bfefb8de0f9</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -10031,15 +10107,15 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
+          <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L162" s="1" t="n">
-        <v>45945.45833333334</v>
+        <v>45826.45833333334</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N162" s="1" t="n">
@@ -10054,12 +10130,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Accelerated Knowledge Transfer 4 (AKT4) Addiction</t>
+          <t>Canada-UK Semiconductors</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2178/overview/2699060f-dd6f-415b-ae47-bead15aa430e</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2192/overview/3906cbd5-fec2-4c1f-897d-ccab071708b3</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -10081,15 +10157,15 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
+          <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L163" s="1" t="n">
-        <v>45840.45833333334</v>
+        <v>45945.45833333334</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>£35,000</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N163" s="1" t="n">
@@ -10104,12 +10180,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Innovate UK innovation loans future economy: Round 21</t>
+          <t>Accelerated Knowledge Transfer 4 (AKT4) Addiction</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2188/overview/20c89a26-2479-4f80-b35a-b62ed3b9b3ce</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2178/overview/2699060f-dd6f-415b-ae47-bead15aa430e</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -10139,7 +10215,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>£2.0 million</t>
+          <t>£35,000</t>
         </is>
       </c>
       <c r="N164" s="1" t="n">
@@ -10154,12 +10230,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Farming Futures R&amp;D Fund: Precision Breeding Competition</t>
+          <t>Innovate UK innovation loans future economy: Round 21</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2168/overview/0fef9171-75b0-4f3e-acef-42920e7e5d5e</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2188/overview/20c89a26-2479-4f80-b35a-b62ed3b9b3ce</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -10181,15 +10257,15 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
+          <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L165" s="1" t="n">
-        <v>45833.45833333334</v>
+        <v>45840.45833333334</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>£2.5 million</t>
+          <t>£2.0 million</t>
         </is>
       </c>
       <c r="N165" s="1" t="n">
@@ -10204,12 +10280,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Farming Futures R&amp;D Fund: low emissions farming</t>
+          <t>Farming Futures R&amp;D Fund: Precision Breeding Competition</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2169/overview/64b0d550-3f46-4ab4-a0cd-5fa7ac488cb6</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2168/overview/0fef9171-75b0-4f3e-acef-42920e7e5d5e</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -10254,12 +10330,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Investor Partnerships: Clean Energy and Climate Technologies</t>
+          <t>Farming Futures R&amp;D Fund: low emissions farming</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2175/overview/7487b4f1-51e6-4f15-a4c8-f103559d14bb</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2169/overview/64b0d550-3f46-4ab4-a0cd-5fa7ac488cb6</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -10281,15 +10357,15 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
+          <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
       <c r="L167" s="1" t="n">
-        <v>45840.45833333334</v>
+        <v>45833.45833333334</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>£2.0 million</t>
+          <t>£2.5 million</t>
         </is>
       </c>
       <c r="N167" s="1" t="n">
@@ -10304,12 +10380,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant: Round 1</t>
+          <t>Investor Partnerships: Clean Energy and Climate Technologies</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2162/overview/c35de0a9-5072-4142-8a52-1cdce8ef3871</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2175/overview/7487b4f1-51e6-4f15-a4c8-f103559d14bb</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -10331,15 +10407,15 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
+          <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L168" s="1" t="n">
-        <v>45833.45833333334</v>
+        <v>45840.45833333334</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£2.0 million</t>
         </is>
       </c>
       <c r="N168" s="1" t="n">
@@ -10354,12 +10430,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Horizon Europe Guarantee - EIT KICs 2023</t>
+          <t>Full ADOPT Grant: Round 1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1585/overview/32135a71-171a-46bf-ad56-e2e65a1a3574</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2162/overview/c35de0a9-5072-4142-8a52-1cdce8ef3871</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -10381,11 +10457,17 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Thursday 27 November 2025 4:00pm</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
+          <t>Wednesday 25 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L169" s="1" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>£100,000</t>
+        </is>
+      </c>
       <c r="N169" s="1" t="n">
         <v>45819</v>
       </c>
@@ -10398,12 +10480,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Horizon Europe Guarantee Extension</t>
+          <t>Horizon Europe Guarantee - EIT KICs 2023</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1389/overview/b900fdc4-c48d-4d8a-8733-ce4ca210ae9a</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1585/overview/32135a71-171a-46bf-ad56-e2e65a1a3574</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -10442,21 +10524,21 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 3</t>
+          <t>Horizon Europe Guarantee Extension</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2184/overview/c599b17c-e13a-4e13-995e-53cc4d4508a1</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1389/overview/b900fdc4-c48d-4d8a-8733-ce4ca210ae9a</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025-06-16 22:04</t>
+          <t>2025-06-14 08:41</t>
         </is>
       </c>
       <c r="E171" s="1" t="n">
-        <v>45824.91944444444</v>
+        <v>45822.36180555556</v>
       </c>
       <c r="F171" t="b">
         <v>1</v>
@@ -10469,17 +10551,11 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Wednesday 17 September 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L171" s="1" t="n">
-        <v>45917.45833333334</v>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>£8,500</t>
-        </is>
-      </c>
+          <t>Thursday 27 November 2025 4:00pm</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
       <c r="N171" s="1" t="n">
         <v>45819</v>
       </c>
@@ -10492,21 +10568,21 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Agri-tech and food technology, Mid and North Wales - CRD</t>
+          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 3</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2212/overview/4411087f-2a92-4aed-b735-d1a813376bec</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2184/overview/c599b17c-e13a-4e13-995e-53cc4d4508a1</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025-06-26 08:52</t>
+          <t>2025-06-16 22:04</t>
         </is>
       </c>
       <c r="E172" s="1" t="n">
-        <v>45834.36944444444</v>
+        <v>45824.91944444444</v>
       </c>
       <c r="F172" t="b">
         <v>1</v>
@@ -10519,19 +10595,19 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Wednesday 20 August 2025 11:00am</t>
+          <t>Wednesday 17 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L172" s="1" t="n">
-        <v>45889.45833333334</v>
+        <v>45917.45833333334</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£8,500</t>
         </is>
       </c>
       <c r="N172" s="1" t="n">
-        <v>45833</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="173">
@@ -10542,12 +10618,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant Round 2</t>
+          <t>Agri-tech and food technology, Mid and North Wales - CRD</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2222/overview/c3d5b2f9-e4d4-4ddc-99a2-589904ac3d42</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2212/overview/4411087f-2a92-4aed-b735-d1a813376bec</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -10577,7 +10653,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N173" s="1" t="n">
@@ -10592,21 +10668,21 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Innovate UK Innovation Loans Round 22</t>
+          <t>Full ADOPT Grant Round 2</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2236/overview/70cbae59-4e67-4626-8cb0-6bbbfc0cf6b7</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2222/overview/c3d5b2f9-e4d4-4ddc-99a2-589904ac3d42</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025-07-03 08:52</t>
+          <t>2025-06-26 08:52</t>
         </is>
       </c>
       <c r="E174" s="1" t="n">
-        <v>45841.36944444444</v>
+        <v>45834.36944444444</v>
       </c>
       <c r="F174" t="b">
         <v>1</v>
@@ -10619,19 +10695,19 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Wednesday 27 August 2025 11:00am</t>
+          <t>Wednesday 20 August 2025 11:00am</t>
         </is>
       </c>
       <c r="L174" s="1" t="n">
-        <v>45896.45833333334</v>
+        <v>45889.45833333334</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N174" s="1" t="n">
-        <v>45840</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="175">
@@ -10642,21 +10718,21 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Growth Catalyst Early Stage: New Innovators</t>
+          <t>Innovate UK Innovation Loans Round 22</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2220/overview/bcfd2780-f307-4434-be32-46889a239024</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2236/overview/70cbae59-4e67-4626-8cb0-6bbbfc0cf6b7</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025-07-07 08:54</t>
+          <t>2025-07-03 08:52</t>
         </is>
       </c>
       <c r="E175" s="1" t="n">
-        <v>45845.37083333333</v>
+        <v>45841.36944444444</v>
       </c>
       <c r="F175" t="b">
         <v>1</v>
@@ -10669,15 +10745,15 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Wednesday 6 August 2025 11:00am</t>
+          <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
       <c r="L175" s="1" t="n">
-        <v>45875.45833333334</v>
+        <v>45896.45833333334</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>£50,000</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N175" s="1" t="n">
@@ -10692,12 +10768,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ATI Programme strategic batch: EoI – July 2025</t>
+          <t>Growth Catalyst Early Stage: New Innovators</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2228/overview/5ccf059d-ae66-4f72-a319-4b12cbd46d1c</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2220/overview/bcfd2780-f307-4434-be32-46889a239024</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -10719,13 +10795,17 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Wednesday 23 July 2025 11:00am</t>
+          <t>Wednesday 6 August 2025 11:00am</t>
         </is>
       </c>
       <c r="L176" s="1" t="n">
-        <v>45861.45833333334</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>45875.45833333334</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>£50,000</t>
+        </is>
+      </c>
       <c r="N176" s="1" t="n">
         <v>45840</v>
       </c>
@@ -10738,21 +10818,21 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Resource Efficient Construction Impacts</t>
+          <t>ATI Programme strategic batch: EoI – July 2025</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2242/overview/51b1338a-0d60-43de-b062-fe7a48a7d42f</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2228/overview/5ccf059d-ae66-4f72-a319-4b12cbd46d1c</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2025-07-09 08:54</t>
+          <t>2025-07-07 08:54</t>
         </is>
       </c>
       <c r="E177" s="1" t="n">
-        <v>45847.37083333333</v>
+        <v>45845.37083333333</v>
       </c>
       <c r="F177" t="b">
         <v>1</v>
@@ -10765,19 +10845,15 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Wednesday 27 August 2025 11:00am</t>
+          <t>Wednesday 23 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L177" s="1" t="n">
-        <v>45896.45833333334</v>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>£300,000</t>
-        </is>
-      </c>
+        <v>45861.45833333334</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
       <c r="N177" s="1" t="n">
-        <v>45847</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="178">
@@ -10788,12 +10864,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Resource Efficient Chemicals Impacts</t>
+          <t>Contracts for Innovation: Resource Efficient Construction Impacts</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2240/overview/10f28eca-01f0-4abf-8e0c-998151fe747b</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2242/overview/51b1338a-0d60-43de-b062-fe7a48a7d42f</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -10838,12 +10914,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Resource Efficient Automotive Impacts</t>
+          <t>Contracts for Innovation: Resource Efficient Chemicals Impacts</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2241/overview/baec7aff-ca8b-456c-9e4d-d6eb9621a988</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2240/overview/10f28eca-01f0-4abf-8e0c-998151fe747b</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -10888,12 +10964,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Future Flight: Regional Demonstrator 2</t>
+          <t>Contracts for Innovation: Resource Efficient Automotive Impacts</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2239/overview/7c5a9acd-4b31-414a-8e35-20dd1df3a2a1</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2241/overview/baec7aff-ca8b-456c-9e4d-d6eb9621a988</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -10915,15 +10991,15 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Thursday 17 July 2025 11:00am</t>
+          <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
       <c r="L180" s="1" t="n">
-        <v>45855.45833333334</v>
+        <v>45896.45833333334</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>£200,000</t>
+          <t>£300,000</t>
         </is>
       </c>
       <c r="N180" s="1" t="n">
@@ -10938,21 +11014,21 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DRIVE35 Scale-up: Feasibility Studies</t>
+          <t>Future Flight: Regional Demonstrator 2</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2247/overview/53da287a-c141-48d2-a3eb-f854e14c6578</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2239/overview/7c5a9acd-4b31-414a-8e35-20dd1df3a2a1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2025-07-15 08:20</t>
+          <t>2025-07-09 08:54</t>
         </is>
       </c>
       <c r="E181" s="1" t="n">
-        <v>45853.34722222222</v>
+        <v>45847.37083333333</v>
       </c>
       <c r="F181" t="b">
         <v>1</v>
@@ -10965,15 +11041,15 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Wednesday 3 September 2025 11:00am</t>
+          <t>Thursday 17 July 2025 11:00am</t>
         </is>
       </c>
       <c r="L181" s="1" t="n">
-        <v>45903.45833333334</v>
+        <v>45855.45833333334</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>£750,000</t>
+          <t>£200,000</t>
         </is>
       </c>
       <c r="N181" s="1" t="n">
@@ -10988,12 +11064,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DRIVE35 Innovation Fund: Demonstrate</t>
+          <t>DRIVE35 Scale-up: Feasibility Studies</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2245/overview/777781a3-f181-42b3-a05e-86b96754f28d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2247/overview/53da287a-c141-48d2-a3eb-f854e14c6578</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -11015,15 +11091,15 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Wednesday 1 October 2025 11:00am</t>
+          <t>Wednesday 3 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L182" s="1" t="n">
-        <v>45931.45833333334</v>
+        <v>45903.45833333334</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£750,000</t>
         </is>
       </c>
       <c r="N182" s="1" t="n">
@@ -11038,12 +11114,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DRIVE35 Innovation Fund: Collaborate</t>
+          <t>DRIVE35 Innovation Fund: Demonstrate</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2244/overview/84f81488-4936-4551-a315-7ec40cf1065d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2245/overview/777781a3-f181-42b3-a05e-86b96754f28d</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -11073,7 +11149,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>£25.0 million</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N183" s="1" t="n">
@@ -11088,21 +11164,21 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 3</t>
+          <t>DRIVE35 Innovation Fund: Collaborate</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2251/overview/f40e861a-c7f6-4597-ac5d-2e8d1b4f59f8</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2244/overview/84f81488-4936-4551-a315-7ec40cf1065d</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2025-07-25 08:20</t>
+          <t>2025-07-15 08:20</t>
         </is>
       </c>
       <c r="E184" s="1" t="n">
-        <v>45863.34722222222</v>
+        <v>45853.34722222222</v>
       </c>
       <c r="F184" t="b">
         <v>1</v>
@@ -11115,19 +11191,19 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Wednesday 3 September 2025 11:00am</t>
+          <t>Wednesday 1 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L184" s="1" t="n">
-        <v>45903.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£25.0 million</t>
         </is>
       </c>
       <c r="N184" s="1" t="n">
-        <v>45861</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="185">
@@ -11138,21 +11214,21 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sovereign AI - Proof of concept</t>
+          <t>ADOPT Facilitator Support Grant: Round 3</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2259/overview/9061ddb2-fa12-45c9-8691-d36649c96e9c</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2251/overview/f40e861a-c7f6-4597-ac5d-2e8d1b4f59f8</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2025-08-07 08:21</t>
+          <t>2025-07-25 08:20</t>
         </is>
       </c>
       <c r="E185" s="1" t="n">
-        <v>45876.34791666667</v>
+        <v>45863.34722222222</v>
       </c>
       <c r="F185" t="b">
         <v>1</v>
@@ -11165,19 +11241,19 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Wednesday 10 September 2025 11:00am</t>
+          <t>Wednesday 3 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L185" s="1" t="n">
-        <v>45910.45833333334</v>
+        <v>45903.45833333334</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>£120,000</t>
+          <t>£2,500</t>
         </is>
       </c>
       <c r="N185" s="1" t="n">
-        <v>45875</v>
+        <v>45861</v>
       </c>
     </row>
     <row r="186">
@@ -11188,21 +11264,21 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Obesity Pathway Innovation Programme (OPIP): Strand 3</t>
+          <t>Sovereign AI - Proof of concept</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2186/overview/e51c18bc-21b3-450d-bdbc-2f43dad3b268</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2259/overview/9061ddb2-fa12-45c9-8691-d36649c96e9c</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2025-08-14 08:20</t>
+          <t>2025-08-07 08:21</t>
         </is>
       </c>
       <c r="E186" s="1" t="n">
-        <v>45883.34722222222</v>
+        <v>45876.34791666667</v>
       </c>
       <c r="F186" t="b">
         <v>1</v>
@@ -11215,19 +11291,19 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Wednesday 19 November 2025 11:00am</t>
+          <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L186" s="1" t="n">
-        <v>45980.45833333334</v>
+        <v>45910.45833333334</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>£8.0 million</t>
+          <t>£120,000</t>
         </is>
       </c>
       <c r="N186" s="1" t="n">
-        <v>45882</v>
+        <v>45875</v>
       </c>
     </row>
     <row r="187">
@@ -11238,12 +11314,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Obesity Pathway Innovation Programme (OPIP): Strand 2</t>
+          <t>Obesity Pathway Innovation Programme (OPIP): Strand 3</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2185/overview/d5b2aeb3-c2e4-4d78-9be3-f1d9919b0956</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2186/overview/e51c18bc-21b3-450d-bdbc-2f43dad3b268</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -11273,7 +11349,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>£4.5 million</t>
+          <t>£8.0 million</t>
         </is>
       </c>
       <c r="N187" s="1" t="n">
@@ -11288,12 +11364,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Obesity Pathway Innovation Programme (OPIP): Strand 1</t>
+          <t>Obesity Pathway Innovation Programme (OPIP): Strand 2</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2177/overview/696c1e3c-589d-4c37-8958-6255d1dc125a</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2185/overview/d5b2aeb3-c2e4-4d78-9be3-f1d9919b0956</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -11323,7 +11399,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>£3.5 million</t>
+          <t>£4.5 million</t>
         </is>
       </c>
       <c r="N188" s="1" t="n">
@@ -11338,21 +11414,21 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Analysis for Innovators: National Physical Laboratory Stage 1</t>
+          <t>Obesity Pathway Innovation Programme (OPIP): Strand 1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2266/overview/2fcad3ee-b5d6-4f01-8b1a-0e1af3c93023</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2177/overview/696c1e3c-589d-4c37-8958-6255d1dc125a</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2025-08-26 08:20</t>
+          <t>2025-08-14 08:20</t>
         </is>
       </c>
       <c r="E189" s="1" t="n">
-        <v>45895.34722222222</v>
+        <v>45883.34722222222</v>
       </c>
       <c r="F189" t="b">
         <v>1</v>
@@ -11365,19 +11441,19 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Wednesday 10 September 2025 11:00am</t>
+          <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L189" s="1" t="n">
-        <v>45910.45833333334</v>
+        <v>45980.45833333334</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£3.5 million</t>
         </is>
       </c>
       <c r="N189" s="1" t="n">
-        <v>45889</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="190">
@@ -11388,21 +11464,21 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant Round 3</t>
+          <t>Analysis for Innovators: National Physical Laboratory Stage 1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2265/overview/fae182db-d9e5-4173-bb59-8fde361ccad4</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2266/overview/2fcad3ee-b5d6-4f01-8b1a-0e1af3c93023</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2025-08-27 08:18</t>
+          <t>2025-08-26 08:20</t>
         </is>
       </c>
       <c r="E190" s="1" t="n">
-        <v>45896.34583333333</v>
+        <v>45895.34722222222</v>
       </c>
       <c r="F190" t="b">
         <v>1</v>
@@ -11415,11 +11491,11 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
+          <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L190" s="1" t="n">
-        <v>45945.45833333334</v>
+        <v>45910.45833333334</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
@@ -11427,7 +11503,7 @@
         </is>
       </c>
       <c r="N190" s="1" t="n">
-        <v>45896</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="191">
@@ -11438,21 +11514,21 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ATI Programme strategic batch: EoI – September 2025</t>
+          <t>Full ADOPT Grant Round 3</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2273/overview/b30df196-a9a2-4e53-85e1-e3e6aaa5c5b7</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2265/overview/fae182db-d9e5-4173-bb59-8fde361ccad4</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025-09-01 08:20</t>
+          <t>2025-08-27 08:18</t>
         </is>
       </c>
       <c r="E191" s="1" t="n">
-        <v>45901.34722222222</v>
+        <v>45896.34583333333</v>
       </c>
       <c r="F191" t="b">
         <v>1</v>
@@ -11465,13 +11541,17 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Wednesday 17 September 2025 11:00am</t>
+          <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L191" s="1" t="n">
-        <v>45917.45833333334</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>£100,000</t>
+        </is>
+      </c>
       <c r="N191" s="1" t="n">
         <v>45896</v>
       </c>
@@ -11484,21 +11564,21 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Farming Innovation Programme: Small R&amp;D Partnership Projects Rd 4</t>
+          <t>ATI Programme strategic batch: EoI – September 2025</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2010/overview/bcd5cf06-313c-4197-ae47-0035f674717f</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2273/overview/b30df196-a9a2-4e53-85e1-e3e6aaa5c5b7</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2025-09-02 08:19</t>
+          <t>2025-09-01 08:20</t>
         </is>
       </c>
       <c r="E192" s="1" t="n">
-        <v>45902.34652777778</v>
+        <v>45901.34722222222</v>
       </c>
       <c r="F192" t="b">
         <v>1</v>
@@ -11511,17 +11591,13 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Wednesday 5 November 2025 11:00am</t>
+          <t>Wednesday 17 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L192" s="1" t="n">
-        <v>45966.45833333334</v>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>£3.0 million</t>
-        </is>
-      </c>
+        <v>45917.45833333334</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
       <c r="N192" s="1" t="n">
         <v>45896</v>
       </c>
@@ -11534,21 +11610,21 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 4</t>
+          <t>Farming Innovation Programme: Small R&amp;D Partnership Projects Rd 4</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2277/overview/7386173a-c074-4617-b7d0-f54f3a458247</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2010/overview/bcd5cf06-313c-4197-ae47-0035f674717f</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025-09-04 08:18</t>
+          <t>2025-09-02 08:19</t>
         </is>
       </c>
       <c r="E193" s="1" t="n">
-        <v>45904.34583333333</v>
+        <v>45902.34652777778</v>
       </c>
       <c r="F193" t="b">
         <v>1</v>
@@ -11561,19 +11637,19 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
+          <t>Wednesday 5 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L193" s="1" t="n">
-        <v>45945.45833333334</v>
+        <v>45966.45833333334</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N193" s="1" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="194">
@@ -11584,21 +11660,21 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Innovate UK Innovation Loans Round 23</t>
+          <t>ADOPT Facilitator Support Grant: Round 4</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2275/overview/dec9b656-5f30-414e-a169-e11e17d04896</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2277/overview/7386173a-c074-4617-b7d0-f54f3a458247</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2025-09-05 08:18</t>
+          <t>2025-09-04 08:18</t>
         </is>
       </c>
       <c r="E194" s="1" t="n">
-        <v>45905.34583333333</v>
+        <v>45904.34583333333</v>
       </c>
       <c r="F194" t="b">
         <v>1</v>
@@ -11611,15 +11687,15 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Wednesday 22 October 2025 11:00am</t>
+          <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L194" s="1" t="n">
-        <v>45952.45833333334</v>
+        <v>45945.45833333334</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£2,500</t>
         </is>
       </c>
       <c r="N194" s="1" t="n">
@@ -11634,21 +11710,21 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>UK-Netherlands Co-Innovation and Testbeds Pilot for Quantum Tech</t>
+          <t>Innovate UK Innovation Loans Round 23</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2288/overview/d547d84e-d652-4ed6-9c85-b12ab8d785d2</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2275/overview/dec9b656-5f30-414e-a169-e11e17d04896</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025-09-12 08:17</t>
+          <t>2025-09-05 08:18</t>
         </is>
       </c>
       <c r="E195" s="1" t="n">
-        <v>45912.34513888889</v>
+        <v>45905.34583333333</v>
       </c>
       <c r="F195" t="b">
         <v>1</v>
@@ -11661,19 +11737,19 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Tuesday 28 October 2025 11:00am</t>
+          <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L195" s="1" t="n">
-        <v>45958.45833333334</v>
+        <v>45952.45833333334</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>£300,000</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N195" s="1" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="196">
@@ -11684,21 +11760,21 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: Quantum Technologies for Transport - Phase 1</t>
+          <t>UK-Netherlands Co-Innovation and Testbeds Pilot for Quantum Tech</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2292/overview/cdea3182-7495-4cad-8435-f49882f08ec7</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2288/overview/d547d84e-d652-4ed6-9c85-b12ab8d785d2</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2025-09-16 08:19</t>
+          <t>2025-09-12 08:17</t>
         </is>
       </c>
       <c r="E196" s="1" t="n">
-        <v>45916.34652777778</v>
+        <v>45912.34513888889</v>
       </c>
       <c r="F196" t="b">
         <v>1</v>
@@ -11711,15 +11787,15 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
+          <t>Tuesday 28 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L196" s="1" t="n">
-        <v>45945.45833333334</v>
+        <v>45958.45833333334</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>£40,000</t>
+          <t>£300,000</t>
         </is>
       </c>
       <c r="N196" s="1" t="n">
@@ -11734,21 +11810,21 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DRIVE35 Scale-up Fund</t>
+          <t>Contracts for Innovation: Quantum Technologies for Transport - Phase 1</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2279/overview/029bd996-9abd-42d9-8134-e2d34e3cfff5</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2292/overview/cdea3182-7495-4cad-8435-f49882f08ec7</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2025-09-17 08:18</t>
+          <t>2025-09-16 08:19</t>
         </is>
       </c>
       <c r="E197" s="1" t="n">
-        <v>45917.34583333333</v>
+        <v>45916.34652777778</v>
       </c>
       <c r="F197" t="b">
         <v>1</v>
@@ -11761,17 +11837,19 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>There is no submission deadline</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr"/>
+          <t>Wednesday 15 October 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L197" s="1" t="n">
+        <v>45945.45833333334</v>
+      </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>£20.0 million</t>
+          <t>£40,000</t>
         </is>
       </c>
       <c r="N197" s="1" t="n">
-        <v>45917</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="198">
@@ -11782,21 +11860,21 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Commercialising Knowledge Assets Fund (CKAF) Winter</t>
+          <t>DRIVE35 Scale-up Fund</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2295/overview/cdce9dab-263c-444b-9e91-61f13046bd62</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2279/overview/029bd996-9abd-42d9-8134-e2d34e3cfff5</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2025-09-18 08:17</t>
+          <t>2025-09-17 08:18</t>
         </is>
       </c>
       <c r="E198" s="1" t="n">
-        <v>45918.34513888889</v>
+        <v>45917.34583333333</v>
       </c>
       <c r="F198" t="b">
         <v>1</v>
@@ -11809,15 +11887,13 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Thursday 4 December 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L198" s="1" t="n">
-        <v>45995.45833333334</v>
-      </c>
+          <t>There is no submission deadline</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr">
         <is>
-          <t>£250,000</t>
+          <t>£20.0 million</t>
         </is>
       </c>
       <c r="N198" s="1" t="n">
@@ -11832,21 +11908,21 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Resource efficiency for resilience and sustainability FS</t>
+          <t>Commercialising Knowledge Assets Fund (CKAF) Winter</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2293/overview/2efee934-8622-4686-bc02-a6ac7fc9e5a6</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2295/overview/cdce9dab-263c-444b-9e91-61f13046bd62</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2025-09-20 08:16</t>
+          <t>2025-09-18 08:17</t>
         </is>
       </c>
       <c r="E199" s="1" t="n">
-        <v>45920.34444444445</v>
+        <v>45918.34513888889</v>
       </c>
       <c r="F199" t="b">
         <v>1</v>
@@ -11859,15 +11935,15 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Monday 3 November 2025 11:00am</t>
+          <t>Thursday 4 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L199" s="1" t="n">
-        <v>45964.45833333334</v>
+        <v>45995.45833333334</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>£25,000</t>
+          <t>£250,000</t>
         </is>
       </c>
       <c r="N199" s="1" t="n">
@@ -11882,21 +11958,21 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C4</t>
+          <t>Resource efficiency for resilience and sustainability FS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2284/overview/aa6bd2b1-f6e1-4e96-bd4c-0557c10779c8</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2293/overview/2efee934-8622-4686-bc02-a6ac7fc9e5a6</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2025-09-23 08:18</t>
+          <t>2025-09-20 08:16</t>
         </is>
       </c>
       <c r="E200" s="1" t="n">
-        <v>45923.34583333333</v>
+        <v>45920.34444444445</v>
       </c>
       <c r="F200" t="b">
         <v>1</v>
@@ -11909,15 +11985,15 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Wednesday 22 October 2025 11:00am</t>
+          <t>Monday 3 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L200" s="1" t="n">
-        <v>45952.45833333334</v>
+        <v>45964.45833333334</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>£150,000</t>
+          <t>£25,000</t>
         </is>
       </c>
       <c r="N200" s="1" t="n">
@@ -11932,21 +12008,21 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Farming Innovation Programme: Feasibility Round 4</t>
+          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C4</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2006/overview/b67973b5-6d46-4a34-a864-bec1212e3fe0</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2284/overview/aa6bd2b1-f6e1-4e96-bd4c-0557c10779c8</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2025-09-29 08:20</t>
+          <t>2025-09-23 08:18</t>
         </is>
       </c>
       <c r="E201" s="1" t="n">
-        <v>45929.34722222222</v>
+        <v>45923.34583333333</v>
       </c>
       <c r="F201" t="b">
         <v>1</v>
@@ -11959,19 +12035,19 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Wednesday 3 December 2025 11:00am</t>
+          <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L201" s="1" t="n">
-        <v>45994.45833333334</v>
+        <v>45952.45833333334</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£150,000</t>
         </is>
       </c>
       <c r="N201" s="1" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="202">
@@ -11982,21 +12058,21 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Eureka GlobalStars Japan 2026</t>
+          <t>Farming Innovation Programme: Feasibility Round 4</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2276/overview/19635c62-dd91-41d8-a90e-547cdb5acbfa</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2006/overview/b67973b5-6d46-4a34-a864-bec1212e3fe0</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2025-10-03 08:17</t>
+          <t>2025-09-29 08:20</t>
         </is>
       </c>
       <c r="E202" s="1" t="n">
-        <v>45933.34513888889</v>
+        <v>45929.34722222222</v>
       </c>
       <c r="F202" t="b">
         <v>1</v>
@@ -12009,19 +12085,19 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Wednesday 21 January 2026 11:00am</t>
+          <t>Wednesday 3 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L202" s="1" t="n">
-        <v>46043.45833333334</v>
+        <v>45994.45833333334</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>£600,000</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N202" s="1" t="n">
-        <v>45931</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="203">
@@ -12032,21 +12108,21 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CAM Pathfinder: Feasibility studies 2</t>
+          <t>Eureka GlobalStars Japan 2026</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2307/overview/8eec43e7-96a5-49d1-97e1-3400321160f9</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2276/overview/19635c62-dd91-41d8-a90e-547cdb5acbfa</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2025-10-10 08:18</t>
+          <t>2025-10-03 08:17</t>
         </is>
       </c>
       <c r="E203" s="1" t="n">
-        <v>45940.34583333333</v>
+        <v>45933.34513888889</v>
       </c>
       <c r="F203" t="b">
         <v>1</v>
@@ -12059,19 +12135,19 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Wednesday 26 November 2025 11:00am</t>
+          <t>Wednesday 21 January 2026 11:00am</t>
         </is>
       </c>
       <c r="L203" s="1" t="n">
-        <v>45987.45833333334</v>
+        <v>46043.45833333334</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>£250,000</t>
+          <t>£600,000</t>
         </is>
       </c>
       <c r="N203" s="1" t="n">
-        <v>45938</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="204">
@@ -12082,21 +12158,21 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ATI Programme strategic batch EoI – October 2025</t>
+          <t>CAM Pathfinder: Feasibility studies 2</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2317/overview/c946fbde-725e-4f85-bb3f-3219576c4a01</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2307/overview/8eec43e7-96a5-49d1-97e1-3400321160f9</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2025-10-14 08:17</t>
+          <t>2025-10-10 08:18</t>
         </is>
       </c>
       <c r="E204" s="1" t="n">
-        <v>45944.34513888889</v>
+        <v>45940.34583333333</v>
       </c>
       <c r="F204" t="b">
         <v>1</v>
@@ -12109,13 +12185,17 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Wednesday 22 October 2025 11:00am</t>
+          <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L204" s="1" t="n">
-        <v>45952.45833333334</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>£250,000</t>
+        </is>
+      </c>
       <c r="N204" s="1" t="n">
         <v>45938</v>
       </c>
@@ -12128,21 +12208,21 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CAM Pathfinder: Enable</t>
+          <t>ATI Programme strategic batch EoI – October 2025</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2318/overview/39cd0e04-6f9c-40da-b0be-8eaae7f1603d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2317/overview/c946fbde-725e-4f85-bb3f-3219576c4a01</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2025-10-15 08:19</t>
+          <t>2025-10-14 08:17</t>
         </is>
       </c>
       <c r="E205" s="1" t="n">
-        <v>45945.34652777778</v>
+        <v>45944.34513888889</v>
       </c>
       <c r="F205" t="b">
         <v>1</v>
@@ -12155,19 +12235,15 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Wednesday 17 December 2025 11:00am</t>
+          <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L205" s="1" t="n">
-        <v>46008.45833333334</v>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>£4.0 million</t>
-        </is>
-      </c>
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
       <c r="N205" s="1" t="n">
-        <v>45945</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="206">
@@ -12178,12 +12254,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CAM Pathfinder: Demonstrate</t>
+          <t>CAM Pathfinder: Enable</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2315/overview/f02885bb-e043-4a60-8d0c-22242bd77fa9</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2318/overview/39cd0e04-6f9c-40da-b0be-8eaae7f1603d</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -12213,7 +12289,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>£2.0 million</t>
+          <t>£4.0 million</t>
         </is>
       </c>
       <c r="N206" s="1" t="n">
@@ -12228,21 +12304,21 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Launchpad: life and health sciences, Northern Ireland – Rd3 MFA</t>
+          <t>CAM Pathfinder: Demonstrate</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2305/overview/fe565f48-36a8-4d8b-8515-e89d750f259c</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2315/overview/f02885bb-e043-4a60-8d0c-22242bd77fa9</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2025-10-16 08:19</t>
+          <t>2025-10-15 08:19</t>
         </is>
       </c>
       <c r="E207" s="1" t="n">
-        <v>45946.34652777778</v>
+        <v>45945.34652777778</v>
       </c>
       <c r="F207" t="b">
         <v>1</v>
@@ -12255,15 +12331,15 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Wednesday 26 November 2025 11:00am</t>
+          <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L207" s="1" t="n">
-        <v>45987.45833333334</v>
+        <v>46008.45833333334</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£2.0 million</t>
         </is>
       </c>
       <c r="N207" s="1" t="n">
@@ -12278,21 +12354,21 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 5</t>
+          <t>Launchpad: life and health sciences, Northern Ireland – Rd3 MFA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2299/overview/0a26e49f-fa03-4096-aa8b-3eb39b68f20d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2305/overview/fe565f48-36a8-4d8b-8515-e89d750f259c</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2025-10-17 08:19</t>
+          <t>2025-10-16 08:19</t>
         </is>
       </c>
       <c r="E208" s="1" t="n">
-        <v>45947.34652777778</v>
+        <v>45946.34652777778</v>
       </c>
       <c r="F208" t="b">
         <v>1</v>
@@ -12313,7 +12389,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N208" s="1" t="n">
@@ -12328,21 +12404,21 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Battery Innovation Feasibility Studies Round 1</t>
+          <t>ADOPT Facilitator Support Grant: Round 5</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2313/overview/508ab35f-0e07-4e84-8e31-bbbcb619bc9e</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2299/overview/0a26e49f-fa03-4096-aa8b-3eb39b68f20d</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2025-10-18 08:16</t>
+          <t>2025-10-17 08:19</t>
         </is>
       </c>
       <c r="E209" s="1" t="n">
-        <v>45948.34444444445</v>
+        <v>45947.34652777778</v>
       </c>
       <c r="F209" t="b">
         <v>1</v>
@@ -12355,15 +12431,15 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Wednesday 17 December 2025 11:00am</t>
+          <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L209" s="1" t="n">
-        <v>46008.45833333334</v>
+        <v>45987.45833333334</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£2,500</t>
         </is>
       </c>
       <c r="N209" s="1" t="n">
@@ -12378,12 +12454,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Battery Innovation Concept Development Round 1</t>
+          <t>Battery Innovation Feasibility Studies Round 1</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2314/overview/4d1e65d7-b380-41b7-8dcf-b25cd26b9ab5</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2313/overview/508ab35f-0e07-4e84-8e31-bbbcb619bc9e</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -12413,7 +12489,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>£4.0 million</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N210" s="1" t="n">
@@ -12428,21 +12504,21 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>The Agentic AI Pioneers Prize</t>
+          <t>Battery Innovation Concept Development Round 1</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2316/overview/fa0eeab0-3021-4cbc-8975-5bd45a7d642a</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2314/overview/4d1e65d7-b380-41b7-8dcf-b25cd26b9ab5</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2025-10-21 08:20</t>
+          <t>2025-10-18 08:16</t>
         </is>
       </c>
       <c r="E211" s="1" t="n">
-        <v>45951.34722222222</v>
+        <v>45948.34444444445</v>
       </c>
       <c r="F211" t="b">
         <v>1</v>
@@ -12455,13 +12531,17 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Wednesday 19 November 2025 11:00am</t>
+          <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L211" s="1" t="n">
-        <v>45980.45833333334</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>£4.0 million</t>
+        </is>
+      </c>
       <c r="N211" s="1" t="n">
         <v>45945</v>
       </c>
@@ -12474,21 +12554,21 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MSI: SME resource and energy efficiency – industrial research</t>
+          <t>The Agentic AI Pioneers Prize</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2328/overview/79cb058a-71b3-459a-93c2-8c96ecf7f18a</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2316/overview/fa0eeab0-3021-4cbc-8975-5bd45a7d642a</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2025-10-22 08:21</t>
+          <t>2025-10-21 08:20</t>
         </is>
       </c>
       <c r="E212" s="1" t="n">
-        <v>45952.34791666667</v>
+        <v>45951.34722222222</v>
       </c>
       <c r="F212" t="b">
         <v>1</v>
@@ -12501,19 +12581,15 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Wednesday 10 December 2025 11:00am</t>
+          <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L212" s="1" t="n">
-        <v>46001.45833333334</v>
-      </c>
-      <c r="M212" t="inlineStr">
-        <is>
-          <t>£1.0 million</t>
-        </is>
-      </c>
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
       <c r="N212" s="1" t="n">
-        <v>45952</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="213">
@@ -12524,12 +12600,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MSI: SME resource and energy   efficiency – feasibility studies</t>
+          <t>MSI: SME resource and energy efficiency – industrial research</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2327/overview/bd7d1a37-69dc-4d09-8615-2bae4bcf3666</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2328/overview/79cb058a-71b3-459a-93c2-8c96ecf7f18a</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -12559,7 +12635,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>£150,000</t>
+          <t>£1.0 million</t>
         </is>
       </c>
       <c r="N213" s="1" t="n">
@@ -12574,21 +12650,21 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant Round 4</t>
+          <t>MSI: SME resource and energy   efficiency – feasibility studies</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2298/overview/71fd7055-502d-4f85-9127-749156a80fe6</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2327/overview/bd7d1a37-69dc-4d09-8615-2bae4bcf3666</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2025-10-23 08:19</t>
+          <t>2025-10-22 08:21</t>
         </is>
       </c>
       <c r="E214" s="1" t="n">
-        <v>45953.34652777778</v>
+        <v>45952.34791666667</v>
       </c>
       <c r="F214" t="b">
         <v>1</v>
@@ -12609,7 +12685,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£150,000</t>
         </is>
       </c>
       <c r="N214" s="1" t="n">
@@ -12624,21 +12700,21 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Innovate UK Innovation Loans Round 24</t>
+          <t>Full ADOPT Grant Round 4</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2322/overview/1b933876-5f58-4dec-85ab-68b8c2722211</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2298/overview/71fd7055-502d-4f85-9127-749156a80fe6</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2025-10-24 08:19</t>
+          <t>2025-10-23 08:19</t>
         </is>
       </c>
       <c r="E215" s="1" t="n">
-        <v>45954.34652777778</v>
+        <v>45953.34652777778</v>
       </c>
       <c r="F215" t="b">
         <v>1</v>
@@ -12651,15 +12727,15 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Wednesday 7 January 2026 11:00am</t>
+          <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L215" s="1" t="n">
-        <v>46029.45833333334</v>
+        <v>46001.45833333334</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N215" s="1" t="n">
@@ -12674,21 +12750,21 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 4</t>
+          <t>Innovate UK Innovation Loans Round 24</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2290/overview/8dd45f5c-3f38-4e38-b733-42b6cf601292</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2322/overview/1b933876-5f58-4dec-85ab-68b8c2722211</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2025-10-25 08:16</t>
+          <t>2025-10-24 08:19</t>
         </is>
       </c>
       <c r="E216" s="1" t="n">
-        <v>45955.34444444445</v>
+        <v>45954.34652777778</v>
       </c>
       <c r="F216" t="b">
         <v>1</v>
@@ -12701,15 +12777,15 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Wednesday 26 November 2025 11:00am</t>
+          <t>Wednesday 7 January 2026 11:00am</t>
         </is>
       </c>
       <c r="L216" s="1" t="n">
-        <v>45987.45833333334</v>
+        <v>46029.45833333334</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>£8,500</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N216" s="1" t="n">
@@ -12724,21 +12800,21 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>National Materials Innovation Programme: Feasibility Studies</t>
+          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 4</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2326/overview/ca8aab61-a03b-431f-94a8-5c9b008495d5</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2290/overview/8dd45f5c-3f38-4e38-b733-42b6cf601292</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2025-10-31 08:18</t>
+          <t>2025-10-25 08:16</t>
         </is>
       </c>
       <c r="E217" s="1" t="n">
-        <v>45961.34583333333</v>
+        <v>45955.34444444445</v>
       </c>
       <c r="F217" t="b">
         <v>1</v>
@@ -12751,19 +12827,19 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Wednesday 17 December 2025 11:00am</t>
+          <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L217" s="1" t="n">
-        <v>46008.45833333334</v>
+        <v>45987.45833333334</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£8,500</t>
         </is>
       </c>
       <c r="N217" s="1" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="218">
@@ -12774,21 +12850,21 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>UK-Canada Quantum Communications and Networking Demonstrator</t>
+          <t>National Materials Innovation Programme: Feasibility Studies</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2335/overview/64e26f1b-8564-4539-b3ca-1b15ebf4f94a</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2326/overview/ca8aab61-a03b-431f-94a8-5c9b008495d5</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2025-11-04 08:20</t>
+          <t>2025-10-31 08:18</t>
         </is>
       </c>
       <c r="E218" s="1" t="n">
-        <v>45965.34722222222</v>
+        <v>45961.34583333333</v>
       </c>
       <c r="F218" t="b">
         <v>1</v>
@@ -12801,15 +12877,15 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Wednesday 26 November 2025 11:00am</t>
+          <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L218" s="1" t="n">
-        <v>45987.45833333334</v>
+        <v>46008.45833333334</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>£3.4 million</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N218" s="1" t="n">
@@ -12824,12 +12900,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Increasing EV charging capacity on the strategic road network</t>
+          <t>UK-Canada Quantum Communications and Networking Demonstrator</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2304/overview/9ea6670e-83fd-43f9-972f-e0eff8fe77a8</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2335/overview/64e26f1b-8564-4539-b3ca-1b15ebf4f94a</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -12851,15 +12927,15 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Wednesday 25 March 2026 11:00am</t>
+          <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L219" s="1" t="n">
-        <v>46106.45833333334</v>
+        <v>45987.45833333334</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>£3.0 million</t>
+          <t>£3.4 million</t>
         </is>
       </c>
       <c r="N219" s="1" t="n">
@@ -12874,21 +12950,21 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Biomedical Catalyst 2025: Industry led R&amp;D small projects</t>
+          <t>Increasing EV charging capacity on the strategic road network</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2333/overview/f5431c75-e2e1-48f4-bc8e-62d52121cb6f</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2304/overview/9ea6670e-83fd-43f9-972f-e0eff8fe77a8</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2025-11-05 08:19</t>
+          <t>2025-11-04 08:20</t>
         </is>
       </c>
       <c r="E220" s="1" t="n">
-        <v>45966.34652777778</v>
+        <v>45965.34722222222</v>
       </c>
       <c r="F220" t="b">
         <v>1</v>
@@ -12901,19 +12977,19 @@
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Wednesday 10 December 2025 11:00am</t>
+          <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L220" s="1" t="n">
-        <v>46001.45833333334</v>
+        <v>46106.45833333334</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>£1.0 million</t>
+          <t>£3.0 million</t>
         </is>
       </c>
       <c r="N220" s="1" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="221">
@@ -12924,12 +13000,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Biomedical Catalyst 2025: Industry led R&amp;D large projects</t>
+          <t>Biomedical Catalyst 2025: Industry led R&amp;D small projects</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2332/overview/bf6bd8c3-e550-478d-b374-a3cb0fb4d3d3</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2333/overview/f5431c75-e2e1-48f4-bc8e-62d52121cb6f</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -12959,7 +13035,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>£4.0 million</t>
+          <t>£1.0 million</t>
         </is>
       </c>
       <c r="N221" s="1" t="n">
@@ -12974,12 +13050,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ATI Programme strategic batch EoI – November 2025</t>
+          <t>Biomedical Catalyst 2025: Industry led R&amp;D large projects</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2334/overview/4af06b80-2953-4cb3-8cc0-987ec5a2f322</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2332/overview/bf6bd8c3-e550-478d-b374-a3cb0fb4d3d3</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -13001,13 +13077,17 @@
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Wednesday 19 November 2025 11:00am</t>
+          <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L222" s="1" t="n">
-        <v>45980.45833333334</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>£4.0 million</t>
+        </is>
+      </c>
       <c r="N222" s="1" t="n">
         <v>45966</v>
       </c>
@@ -13020,21 +13100,21 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DRIVE35 Scale-up: Feasibility Studies 2</t>
+          <t>ATI Programme strategic batch EoI – November 2025</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2341/overview/4b0efce9-75b8-4e84-97c0-fc6277396586</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2334/overview/4af06b80-2953-4cb3-8cc0-987ec5a2f322</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2025-11-11 08:19</t>
+          <t>2025-11-05 08:19</t>
         </is>
       </c>
       <c r="E223" s="1" t="n">
-        <v>45972.34652777778</v>
+        <v>45966.34652777778</v>
       </c>
       <c r="F223" t="b">
         <v>1</v>
@@ -13047,17 +13127,13 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Wednesday 17 December 2025 11:00am</t>
+          <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
       <c r="L223" s="1" t="n">
-        <v>46008.45833333334</v>
-      </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>£750,000</t>
-        </is>
-      </c>
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
       <c r="N223" s="1" t="n">
         <v>45966</v>
       </c>
@@ -13070,21 +13146,21 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Women in Innovation Awards 2025/26</t>
+          <t>DRIVE35 Scale-up: Feasibility Studies 2</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2337/overview/3750b1cd-2080-4a1c-82c0-003fbaafdd2d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2341/overview/4b0efce9-75b8-4e84-97c0-fc6277396586</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2025-11-27 13:23</t>
+          <t>2025-11-11 08:19</t>
         </is>
       </c>
       <c r="E224" s="1" t="n">
-        <v>45988.55763888889</v>
+        <v>45972.34652777778</v>
       </c>
       <c r="F224" t="b">
         <v>1</v>
@@ -13097,19 +13173,19 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Wednesday 4 February 2026 11:00am</t>
+          <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
       <c r="L224" s="1" t="n">
-        <v>46057.45833333334</v>
+        <v>46008.45833333334</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>£75,000</t>
+          <t>£750,000</t>
         </is>
       </c>
       <c r="N224" s="1" t="n">
-        <v>45987</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="225">
@@ -13120,21 +13196,21 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 5</t>
+          <t>Women in Innovation Awards 2025/26</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2354/overview/c7008321-f651-45c5-a409-c3215231fbb4</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2337/overview/3750b1cd-2080-4a1c-82c0-003fbaafdd2d</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2025-12-02 08:22</t>
+          <t>2025-11-27 13:23</t>
         </is>
       </c>
       <c r="E225" s="1" t="n">
-        <v>45993.34861111111</v>
+        <v>45988.55763888889</v>
       </c>
       <c r="F225" t="b">
         <v>1</v>
@@ -13155,7 +13231,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>£8,500</t>
+          <t>£75,000</t>
         </is>
       </c>
       <c r="N225" s="1" t="n">
@@ -13170,21 +13246,21 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Innovate UK Growth Catalyst – Investor Partnerships Round 2</t>
+          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 5</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2360/overview/37d8f6e1-5600-4e9e-bbfc-11bc320f8808</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2354/overview/c7008321-f651-45c5-a409-c3215231fbb4</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2025-12-11 08:22</t>
+          <t>2025-12-02 08:22</t>
         </is>
       </c>
       <c r="E226" s="1" t="n">
-        <v>46002.34861111111</v>
+        <v>45993.34861111111</v>
       </c>
       <c r="F226" t="b">
         <v>1</v>
@@ -13197,19 +13273,19 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Tuesday 3 February 2026 11:00am</t>
+          <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L226" s="1" t="n">
-        <v>46056.45833333334</v>
+        <v>46057.45833333334</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>£2.0 million</t>
+          <t>£8,500</t>
         </is>
       </c>
       <c r="N226" s="1" t="n">
-        <v>46001</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="227">
@@ -13220,21 +13296,21 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant: Round 5</t>
+          <t>Innovate UK Growth Catalyst – Investor Partnerships Round 2</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2358/overview/f93f32c2-dd04-474d-bc35-a8af1ecac1a9</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2360/overview/37d8f6e1-5600-4e9e-bbfc-11bc320f8808</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2025-12-12 08:22</t>
+          <t>2025-12-11 08:22</t>
         </is>
       </c>
       <c r="E227" s="1" t="n">
-        <v>46003.34861111111</v>
+        <v>46002.34861111111</v>
       </c>
       <c r="F227" t="b">
         <v>1</v>
@@ -13247,15 +13323,15 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Wednesday 4 February 2026 11:00am</t>
+          <t>Tuesday 3 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L227" s="1" t="n">
-        <v>46057.45833333334</v>
+        <v>46056.45833333334</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£2.0 million</t>
         </is>
       </c>
       <c r="N227" s="1" t="n">
@@ -13270,21 +13346,21 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 6</t>
+          <t>Full ADOPT Grant: Round 5</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2371/overview/471bfe91-9f9c-4086-a28a-15296f1957e2</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2358/overview/f93f32c2-dd04-474d-bc35-a8af1ecac1a9</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2025-12-18 08:21</t>
+          <t>2025-12-12 08:22</t>
         </is>
       </c>
       <c r="E228" s="1" t="n">
-        <v>46009.34791666667</v>
+        <v>46003.34861111111</v>
       </c>
       <c r="F228" t="b">
         <v>1</v>
@@ -13297,19 +13373,19 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Wednesday 25 February 2026 11:00am</t>
+          <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L228" s="1" t="n">
-        <v>46078.45833333334</v>
+        <v>46057.45833333334</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N228" s="1" t="n">
-        <v>46008</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="229">
@@ -13320,12 +13396,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Commercialising Knowledge Assets Fund (CKAF) Spring</t>
+          <t>ADOPT Facilitator Support Grant: Round 6</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2369/overview/abf7d399-81b9-4f33-b592-51825a288c37</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2371/overview/471bfe91-9f9c-4086-a28a-15296f1957e2</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -13347,15 +13423,15 @@
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Thursday 7 May 2026 11:00am</t>
+          <t>Wednesday 25 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L229" s="1" t="n">
-        <v>46149.45833333334</v>
+        <v>46078.45833333334</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>£250,000</t>
+          <t>£2,500</t>
         </is>
       </c>
       <c r="N229" s="1" t="n">
@@ -13370,21 +13446,21 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Energy catalyst round 11 – mid stage</t>
+          <t>Commercialising Knowledge Assets Fund (CKAF) Spring</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2363/overview/9f759af1-3732-4d15-995d-053e28025d22</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2369/overview/abf7d399-81b9-4f33-b592-51825a288c37</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2026-01-06 08:22</t>
+          <t>2025-12-18 08:21</t>
         </is>
       </c>
       <c r="E230" s="1" t="n">
-        <v>46028.34861111111</v>
+        <v>46009.34791666667</v>
       </c>
       <c r="F230" t="b">
         <v>1</v>
@@ -13397,19 +13473,19 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Wednesday 25 March 2026 11:00am</t>
+          <t>Thursday 7 May 2026 11:00am</t>
         </is>
       </c>
       <c r="L230" s="1" t="n">
-        <v>46106.45833333334</v>
+        <v>46149.45833333334</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£250,000</t>
         </is>
       </c>
       <c r="N230" s="1" t="n">
-        <v>46022</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="231">
@@ -13420,12 +13496,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Energy catalyst round 11 – late stage</t>
+          <t>Energy catalyst round 11 – mid stage</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2364/overview/b9d4dedf-d22a-41d1-9ca2-6c5a279519be</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2363/overview/9f759af1-3732-4d15-995d-053e28025d22</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -13455,7 +13531,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N231" s="1" t="n">
@@ -13470,12 +13546,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Energy catalyst round 11 – early stage</t>
+          <t>Energy catalyst round 11 – late stage</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2362/overview/640b2f4e-8571-4aef-9e2a-67e35db3db77</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2364/overview/b9d4dedf-d22a-41d1-9ca2-6c5a279519be</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -13505,7 +13581,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>£300,000</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N232" s="1" t="n">
@@ -13520,12 +13596,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DRIVE35 Innovation Fund: Demonstrate 2</t>
+          <t>Energy catalyst round 11 – early stage</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2351/overview/349c38f5-5ed2-4cf4-a324-bda2d6cd1e67</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2362/overview/640b2f4e-8571-4aef-9e2a-67e35db3db77</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -13547,15 +13623,15 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Wednesday 11 March 2026 11:00am</t>
+          <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L233" s="1" t="n">
-        <v>46092.45833333334</v>
+        <v>46106.45833333334</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£300,000</t>
         </is>
       </c>
       <c r="N233" s="1" t="n">
@@ -13570,12 +13646,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DRIVE35 Innovation Fund: Collaborate 2</t>
+          <t>DRIVE35 Innovation Fund: Demonstrate 2</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2350/overview/dbd41be3-14ea-4c83-8774-eb28a8703d57</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2351/overview/349c38f5-5ed2-4cf4-a324-bda2d6cd1e67</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -13597,15 +13673,15 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Wednesday 18 March 2026 11:00am</t>
+          <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L234" s="1" t="n">
-        <v>46099.45833333334</v>
+        <v>46092.45833333334</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>£25.0 million</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N234" s="1" t="n">
@@ -13620,21 +13696,21 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Innovate UK Innovation Loans Round 25</t>
+          <t>DRIVE35 Innovation Fund: Collaborate 2</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2373/overview/609dc5dd-d3e8-4f51-af3a-3eb1b3314710</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2350/overview/dbd41be3-14ea-4c83-8774-eb28a8703d57</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2026-01-08 08:22</t>
+          <t>2026-01-06 08:22</t>
         </is>
       </c>
       <c r="E235" s="1" t="n">
-        <v>46030.34861111111</v>
+        <v>46028.34861111111</v>
       </c>
       <c r="F235" t="b">
         <v>1</v>
@@ -13647,19 +13723,19 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Wednesday 4 March 2026 11:00am</t>
+          <t>Wednesday 18 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L235" s="1" t="n">
-        <v>46085.45833333334</v>
+        <v>46099.45833333334</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£25.0 million</t>
         </is>
       </c>
       <c r="N235" s="1" t="n">
-        <v>46029</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="236">
@@ -13670,21 +13746,21 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Cyber Security Academic Startup Accelerator Programme Y10 Phase 1</t>
+          <t>Innovate UK Innovation Loans Round 25</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2376/overview/1b9b9265-ca4b-4f8c-a0c2-577cb8713642</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2373/overview/609dc5dd-d3e8-4f51-af3a-3eb1b3314710</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2026-01-15 08:23</t>
+          <t>2026-01-08 08:22</t>
         </is>
       </c>
       <c r="E236" s="1" t="n">
-        <v>46037.34930555556</v>
+        <v>46030.34861111111</v>
       </c>
       <c r="F236" t="b">
         <v>1</v>
@@ -13697,19 +13773,19 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Wednesday 11 February 2026 11:00am</t>
+          <t>Wednesday 4 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L236" s="1" t="n">
-        <v>46064.45833333334</v>
+        <v>46085.45833333334</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>£32,000</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N236" s="1" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="237">
@@ -13720,21 +13796,21 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C5</t>
+          <t>Cyber Security Academic Startup Accelerator Programme Y10 Phase 1</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2346/overview/e172ee7c-3050-4d47-bf11-235cfe76c1e1</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2376/overview/1b9b9265-ca4b-4f8c-a0c2-577cb8713642</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2026-01-20 08:24</t>
+          <t>2026-01-15 08:23</t>
         </is>
       </c>
       <c r="E237" s="1" t="n">
-        <v>46042.35</v>
+        <v>46037.34930555556</v>
       </c>
       <c r="F237" t="b">
         <v>1</v>
@@ -13747,15 +13823,15 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Wednesday 25 February 2026 11:00am</t>
+          <t>Wednesday 11 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L237" s="1" t="n">
-        <v>46078.45833333334</v>
+        <v>46064.45833333334</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>£150,000</t>
+          <t>£32,000</t>
         </is>
       </c>
       <c r="N237" s="1" t="n">
@@ -13770,21 +13846,21 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Advanced manufacturing supply chain innovation FS</t>
+          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C5</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2384/overview/2ad8ce21-d3f6-48bf-b55a-5af2a892a1e0</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2346/overview/e172ee7c-3050-4d47-bf11-235cfe76c1e1</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2026-01-26 12:10</t>
+          <t>2026-01-20 08:24</t>
         </is>
       </c>
       <c r="E238" s="1" t="n">
-        <v>46048.50694444445</v>
+        <v>46042.35</v>
       </c>
       <c r="F238" t="b">
         <v>1</v>
@@ -13797,19 +13873,19 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Wednesday 11 March 2026 11:00am</t>
+          <t>Wednesday 25 February 2026 11:00am</t>
         </is>
       </c>
       <c r="L238" s="1" t="n">
-        <v>46092.45833333334</v>
+        <v>46078.45833333334</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>£100,000</t>
+          <t>£150,000</t>
         </is>
       </c>
       <c r="N238" s="1" t="n">
-        <v>46043</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="239">
@@ -13820,21 +13896,21 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
+          <t>Advanced manufacturing supply chain innovation FS</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2378/overview/ae120ce2-7b72-4cf2-8dde-f78b02d5996d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2384/overview/2ad8ce21-d3f6-48bf-b55a-5af2a892a1e0</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2026-01-28 10:24</t>
+          <t>2026-01-26 12:10</t>
         </is>
       </c>
       <c r="E239" s="1" t="n">
-        <v>46050.43333333333</v>
+        <v>46048.50694444445</v>
       </c>
       <c r="F239" t="b">
         <v>1</v>
@@ -13847,19 +13923,19 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Wednesday 18 March 2026 11:00am</t>
+          <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L239" s="1" t="n">
-        <v>46099.45833333334</v>
+        <v>46092.45833333334</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>£225,000</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N239" s="1" t="n">
-        <v>46050</v>
+        <v>46043</v>
       </c>
     </row>
     <row r="240">
@@ -13870,12 +13946,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TechLocal AI Professional Degree and Traineeship Accelerator</t>
+          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2375/overview/6431359e-eb5c-4f76-b49d-299948107fbd</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2378/overview/ae120ce2-7b72-4cf2-8dde-f78b02d5996d</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -13905,7 +13981,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>£300,000</t>
+          <t>£225,000</t>
         </is>
       </c>
       <c r="N240" s="1" t="n">
@@ -13920,21 +13996,21 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Robotics Adoption Programme skills development</t>
+          <t>TechLocal AI Professional Degree and Traineeship Accelerator</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2387/overview/daca31c2-8395-4bc2-a5da-55eb1e432fa4</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2375/overview/6431359e-eb5c-4f76-b49d-299948107fbd</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2026-02-02 10:39</t>
+          <t>2026-01-28 10:24</t>
         </is>
       </c>
       <c r="E241" s="1" t="n">
-        <v>46055.44375</v>
+        <v>46050.43333333333</v>
       </c>
       <c r="F241" t="b">
         <v>1</v>
@@ -13947,15 +14023,15 @@
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Wednesday 25 March 2026 11:00am</t>
+          <t>Wednesday 18 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L241" s="1" t="n">
-        <v>46106.45833333334</v>
+        <v>46099.45833333334</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£300,000</t>
         </is>
       </c>
       <c r="N241" s="1" t="n">
@@ -13970,21 +14046,21 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Knowledge Transfer Partnership (KTP): 2026 – 2027 Round 1</t>
+          <t>Robotics Adoption Programme skills development</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2380/overview/3e170dd3-4458-4c7e-a096-e0ea50b88040</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2387/overview/daca31c2-8395-4bc2-a5da-55eb1e432fa4</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2026-02-03 10:35</t>
+          <t>2026-02-02 10:39</t>
         </is>
       </c>
       <c r="E242" s="1" t="n">
-        <v>46056.44097222222</v>
+        <v>46055.44375</v>
       </c>
       <c r="F242" t="b">
         <v>1</v>
@@ -13997,15 +14073,15 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Wednesday 1 April 2026 11:00am</t>
+          <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L242" s="1" t="n">
-        <v>46113.45833333334</v>
+        <v>46106.45833333334</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>£8,500</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N242" s="1" t="n">
@@ -14020,12 +14096,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Biomedical Catalyst Accelerator Provider Pool EoI: late stage</t>
+          <t>Knowledge Transfer Partnership (KTP): 2026 – 2027 Round 1</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2389/overview/a7f7d874-8b6b-45d6-b1e1-1e88e11a1ea5</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2380/overview/3e170dd3-4458-4c7e-a096-e0ea50b88040</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -14047,13 +14123,17 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Wednesday 4 March 2026 11:00am</t>
+          <t>Wednesday 1 April 2026 11:00am</t>
         </is>
       </c>
       <c r="L243" s="1" t="n">
-        <v>46085.45833333334</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>46113.45833333334</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>£8,500</t>
+        </is>
+      </c>
       <c r="N243" s="1" t="n">
         <v>46050</v>
       </c>
@@ -14066,12 +14146,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Biomedical Catalyst Accelerator Provider Pool EoI: early stage</t>
+          <t>Biomedical Catalyst Accelerator Provider Pool EoI: late stage</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2388/overview/08b8ab63-085d-4d79-ae83-e8c1698cb327</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2389/overview/a7f7d874-8b6b-45d6-b1e1-1e88e11a1ea5</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -14112,21 +14192,21 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Full ADOPT Grant: Round 6</t>
+          <t>Biomedical Catalyst Accelerator Provider Pool EoI: early stage</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2385/overview/2343c344-807d-41a1-9551-05ac5420ba11</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2388/overview/08b8ab63-085d-4d79-ae83-e8c1698cb327</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2026-02-09 10:53</t>
+          <t>2026-02-03 10:35</t>
         </is>
       </c>
       <c r="E245" s="1" t="n">
-        <v>46062.45347222222</v>
+        <v>46056.44097222222</v>
       </c>
       <c r="F245" t="b">
         <v>1</v>
@@ -14139,19 +14219,15 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Wednesday 8 April 2026 11:00am</t>
+          <t>Wednesday 4 March 2026 11:00am</t>
         </is>
       </c>
       <c r="L245" s="1" t="n">
-        <v>46120.45833333334</v>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>£100,000</t>
-        </is>
-      </c>
+        <v>46085.45833333334</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
       <c r="N245" s="1" t="n">
-        <v>46057</v>
+        <v>46050</v>
       </c>
     </row>
     <row r="246">
@@ -14162,21 +14238,21 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Zero Emission Flight Demonstrator Round 1</t>
+          <t>Full ADOPT Grant: Round 6</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2397/overview/752074ec-5f01-46d8-863f-596300a11651</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2385/overview/2343c344-807d-41a1-9551-05ac5420ba11</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2026-02-12 10:40</t>
+          <t>2026-02-09 10:53</t>
         </is>
       </c>
       <c r="E246" s="1" t="n">
-        <v>46065.44444444445</v>
+        <v>46062.45347222222</v>
       </c>
       <c r="F246" t="b">
         <v>1</v>
@@ -14189,19 +14265,19 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Wednesday 1 April 2026 11:00am</t>
+          <t>Wednesday 8 April 2026 11:00am</t>
         </is>
       </c>
       <c r="L246" s="1" t="n">
-        <v>46113.45833333334</v>
+        <v>46120.45833333334</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£100,000</t>
         </is>
       </c>
       <c r="N246" s="1" t="n">
-        <v>46064</v>
+        <v>46057</v>
       </c>
     </row>
     <row r="247">
@@ -14212,12 +14288,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
+          <t>Zero Emission Flight Demonstrator Round 1</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2395/overview/3d49fbc4-6e09-4dd8-9ac8-8e5f88facd8d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2397/overview/752074ec-5f01-46d8-863f-596300a11651</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -14239,15 +14315,15 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Wednesday 6 May 2026 11:00am</t>
+          <t>Wednesday 1 April 2026 11:00am</t>
         </is>
       </c>
       <c r="L247" s="1" t="n">
-        <v>46148.45833333334</v>
+        <v>46113.45833333334</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N247" s="1" t="n">
@@ -14262,12 +14338,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
+          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2394/overview/33b56af8-353f-46ac-bb66-a0928731c0fc</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2395/overview/3d49fbc4-6e09-4dd8-9ac8-8e5f88facd8d</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -14297,7 +14373,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>£10.0 million</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N248" s="1" t="n">
@@ -14312,21 +14388,21 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
+          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2392/overview/b8b93732-6326-4aed-9af3-334e4cc5ecc0</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2394/overview/33b56af8-353f-46ac-bb66-a0928731c0fc</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2026-02-13 10:35</t>
+          <t>2026-02-12 10:40</t>
         </is>
       </c>
       <c r="E249" s="1" t="n">
-        <v>46066.44097222222</v>
+        <v>46065.44444444445</v>
       </c>
       <c r="F249" t="b">
         <v>1</v>
@@ -14339,15 +14415,15 @@
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Wednesday 15 April 2026 11:00am</t>
+          <t>Wednesday 6 May 2026 11:00am</t>
         </is>
       </c>
       <c r="L249" s="1" t="n">
-        <v>46127.45833333334</v>
+        <v>46148.45833333334</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>£1.0 million</t>
+          <t>£10.0 million</t>
         </is>
       </c>
       <c r="N249" s="1" t="n">
@@ -14362,21 +14438,21 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Contracts for Innovation: industrial human relevant drug models</t>
+          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2396/overview/d55398bb-ff62-43b9-9ee1-bf3fa4b95c5c</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2392/overview/b8b93732-6326-4aed-9af3-334e4cc5ecc0</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2026-02-17 10:40</t>
+          <t>2026-02-13 10:35</t>
         </is>
       </c>
       <c r="E250" s="1" t="n">
-        <v>46070.44444444445</v>
+        <v>46066.44097222222</v>
       </c>
       <c r="F250" t="b">
         <v>1</v>
@@ -14397,10 +14473,60 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
+          <t>£1.0 million</t>
+        </is>
+      </c>
+      <c r="N250" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Contracts for Innovation: industrial human relevant drug models</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2396/overview/d55398bb-ff62-43b9-9ee1-bf3fa4b95c5c</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2026-02-17 10:40</t>
+        </is>
+      </c>
+      <c r="E251" s="1" t="n">
+        <v>46070.44444444445</v>
+      </c>
+      <c r="F251" t="b">
+        <v>1</v>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="b">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Wednesday 15 April 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L251" s="1" t="n">
+        <v>46127.45833333334</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
           <t>£200,000</t>
         </is>
       </c>
-      <c r="N250" s="1" t="n">
+      <c r="N251" s="1" t="n">
         <v>46064</v>
       </c>
     </row>
@@ -14447,10 +14573,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -14473,10 +14599,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C4" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
